--- a/EcologyBias.Daneshgar.Popo.xlsx
+++ b/EcologyBias.Daneshgar.Popo.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianapopo/Desktop/Fall 2020/Honors Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veronicamarquez/Desktop/Dr.D Ecology Bias SC/MA321-Daneshgar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90912393-E5CD-5249-9419-C2A8928B078B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Ecological Journals" sheetId="2" r:id="rId2"/>
     <sheet name="Ecosystems" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="N6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2176,8 +2183,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2651,18 +2658,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
@@ -2683,7 +2690,7 @@
     <col min="19" max="20" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +2755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -2809,7 +2816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -2870,7 +2877,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -2935,7 +2942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2997,7 +3004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -3049,7 +3056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -3112,7 +3119,7 @@
       </c>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -3164,7 +3171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -3215,7 +3222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -3271,7 +3278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -3330,7 +3337,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -3389,7 +3396,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -3448,7 +3455,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -3496,7 +3503,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -3544,7 +3551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -3592,7 +3599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1">
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -3640,7 +3647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -3694,7 +3701,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -3746,7 +3753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -3798,7 +3805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
@@ -3846,7 +3853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1">
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -3908,7 +3915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -3964,7 +3971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -4012,7 +4019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -4068,7 +4075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -4116,7 +4123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4170,7 +4177,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -4218,7 +4225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>21</v>
       </c>
@@ -4274,7 +4281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
@@ -4322,7 +4329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>21</v>
       </c>
@@ -4384,7 +4391,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>21</v>
       </c>
@@ -4449,7 +4456,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1">
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -4505,7 +4512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>21</v>
       </c>
@@ -4567,7 +4574,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1">
+    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>21</v>
       </c>
@@ -4629,7 +4636,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1">
+    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>21</v>
       </c>
@@ -4694,7 +4701,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1">
+    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -4741,7 +4748,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1">
+    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
@@ -4803,7 +4810,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1">
+    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -4855,7 +4862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1">
+    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>21</v>
       </c>
@@ -4903,7 +4910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1">
+    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -4951,7 +4958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1">
+    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
@@ -5007,7 +5014,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1">
+    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
@@ -5055,7 +5062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1">
+    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>21</v>
       </c>
@@ -5111,7 +5118,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15.75" customHeight="1">
+    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -5168,7 +5175,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15.75" customHeight="1">
+    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>21</v>
       </c>
@@ -5219,7 +5226,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15.75" customHeight="1">
+    <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>21</v>
       </c>
@@ -5272,7 +5279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
@@ -5334,7 +5341,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="13">
+    <row r="49" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>21</v>
       </c>
@@ -5382,7 +5389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16">
+    <row r="50" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>21</v>
       </c>
@@ -5440,7 +5447,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="13">
+    <row r="51" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>21</v>
       </c>
@@ -5488,7 +5495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="13">
+    <row r="52" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>21</v>
       </c>
@@ -5536,7 +5543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="13">
+    <row r="53" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>21</v>
       </c>
@@ -5584,7 +5591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="13">
+    <row r="54" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>21</v>
       </c>
@@ -5640,7 +5647,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="13">
+    <row r="55" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>21</v>
       </c>
@@ -5692,7 +5699,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="13">
+    <row r="56" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>21</v>
       </c>
@@ -5746,7 +5753,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="13">
+    <row r="57" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>21</v>
       </c>
@@ -5798,7 +5805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="13">
+    <row r="58" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -5850,7 +5857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="13">
+    <row r="59" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>21</v>
       </c>
@@ -5898,7 +5905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="13">
+    <row r="60" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
         <v>21</v>
       </c>
@@ -5953,7 +5960,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="13">
+    <row r="61" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>21</v>
       </c>
@@ -6005,7 +6012,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="13">
+    <row r="62" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>21</v>
       </c>
@@ -6061,7 +6068,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="13">
+    <row r="63" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>21</v>
       </c>
@@ -6116,7 +6123,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="13">
+    <row r="64" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>21</v>
       </c>
@@ -6164,7 +6171,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="13">
+    <row r="65" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>21</v>
       </c>
@@ -6212,7 +6219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="13">
+    <row r="66" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>21</v>
       </c>
@@ -6260,7 +6267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="13">
+    <row r="67" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>21</v>
       </c>
@@ -6316,7 +6323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="13">
+    <row r="68" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -6372,7 +6379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="16">
+    <row r="69" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>21</v>
       </c>
@@ -6426,7 +6433,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="13">
+    <row r="70" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>21</v>
       </c>
@@ -6482,7 +6489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="16">
+    <row r="71" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>21</v>
       </c>
@@ -6544,7 +6551,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="13">
+    <row r="72" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>21</v>
       </c>
@@ -6592,7 +6599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="13">
+    <row r="73" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>21</v>
       </c>
@@ -6640,7 +6647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="13">
+    <row r="74" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>21</v>
       </c>
@@ -6705,7 +6712,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="13">
+    <row r="75" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>21</v>
       </c>
@@ -6753,7 +6760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="13">
+    <row r="76" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>21</v>
       </c>
@@ -6809,7 +6816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="13">
+    <row r="77" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
         <v>21</v>
       </c>
@@ -6861,7 +6868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="13">
+    <row r="78" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
         <v>21</v>
       </c>
@@ -6913,7 +6920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="13">
+    <row r="79" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
         <v>21</v>
       </c>
@@ -6969,7 +6976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="13">
+    <row r="80" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
         <v>21</v>
       </c>
@@ -7025,7 +7032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="13">
+    <row r="81" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>21</v>
       </c>
@@ -7073,7 +7080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="13">
+    <row r="82" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
         <v>21</v>
       </c>
@@ -7121,7 +7128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="13">
+    <row r="83" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
         <v>21</v>
       </c>
@@ -7183,7 +7190,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="13">
+    <row r="84" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
         <v>21</v>
       </c>
@@ -7237,7 +7244,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="13">
+    <row r="85" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
         <v>21</v>
       </c>
@@ -7285,7 +7292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="13">
+    <row r="86" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
         <v>21</v>
       </c>
@@ -7337,7 +7344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="13">
+    <row r="87" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
         <v>21</v>
       </c>
@@ -7385,7 +7392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="13">
+    <row r="88" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
         <v>21</v>
       </c>
@@ -7433,7 +7440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="13">
+    <row r="89" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
         <v>21</v>
       </c>
@@ -7489,7 +7496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="13">
+    <row r="90" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
         <v>21</v>
       </c>
@@ -7544,7 +7551,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="13">
+    <row r="91" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
         <v>21</v>
       </c>
@@ -7602,7 +7609,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="13">
+    <row r="92" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
         <v>21</v>
       </c>
@@ -7661,7 +7668,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="13">
+    <row r="93" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
         <v>21</v>
       </c>
@@ -7713,7 +7720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="13">
+    <row r="94" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
         <v>21</v>
       </c>
@@ -7772,7 +7779,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="13">
+    <row r="95" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
         <v>21</v>
       </c>
@@ -7828,7 +7835,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="13">
+    <row r="96" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
         <v>21</v>
       </c>
@@ -7880,7 +7887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="13">
+    <row r="97" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
         <v>21</v>
       </c>
@@ -7936,7 +7943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="13">
+    <row r="98" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
         <v>21</v>
       </c>
@@ -7990,7 +7997,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="13">
+    <row r="99" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
         <v>21</v>
       </c>
@@ -8049,7 +8056,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="13">
+    <row r="100" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
         <v>21</v>
       </c>
@@ -8103,7 +8110,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="13">
+    <row r="101" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
         <v>21</v>
       </c>
@@ -8165,7 +8172,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="13">
+    <row r="102" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
         <v>21</v>
       </c>
@@ -8212,7 +8219,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="13">
+    <row r="103" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
         <v>21</v>
       </c>
@@ -8268,7 +8275,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="13">
+    <row r="104" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
         <v>21</v>
       </c>
@@ -8320,7 +8327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="13">
+    <row r="105" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
         <v>21</v>
       </c>
@@ -8382,7 +8389,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="13">
+    <row r="106" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
         <v>21</v>
       </c>
@@ -8434,7 +8441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="13">
+    <row r="107" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
         <v>21</v>
       </c>
@@ -8482,7 +8489,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="13">
+    <row r="108" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
         <v>21</v>
       </c>
@@ -8538,7 +8545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="13">
+    <row r="109" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
         <v>21</v>
       </c>
@@ -8594,7 +8601,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="13">
+    <row r="110" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
         <v>21</v>
       </c>
@@ -8642,7 +8649,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="13">
+    <row r="111" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
         <v>21</v>
       </c>
@@ -8690,7 +8697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="13">
+    <row r="112" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
         <v>21</v>
       </c>
@@ -8752,7 +8759,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="13">
+    <row r="113" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
         <v>21</v>
       </c>
@@ -8811,7 +8818,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="13">
+    <row r="114" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
         <v>21</v>
       </c>
@@ -8863,7 +8870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="13">
+    <row r="115" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="5" t="s">
         <v>21</v>
       </c>
@@ -8911,7 +8918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="13">
+    <row r="116" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="5" t="s">
         <v>21</v>
       </c>
@@ -8965,7 +8972,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="13">
+    <row r="117" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="5" t="s">
         <v>21</v>
       </c>
@@ -9013,7 +9020,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="13">
+    <row r="118" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="5" t="s">
         <v>21</v>
       </c>
@@ -9075,7 +9082,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="13">
+    <row r="119" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="5" t="s">
         <v>21</v>
       </c>
@@ -9132,7 +9139,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="16">
+    <row r="120" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>21</v>
       </c>
@@ -9184,7 +9191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="13">
+    <row r="121" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="5" t="s">
         <v>21</v>
       </c>
@@ -9242,7 +9249,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="13">
+    <row r="122" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="5" t="s">
         <v>21</v>
       </c>
@@ -9307,7 +9314,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="13">
+    <row r="123" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="5" t="s">
         <v>21</v>
       </c>
@@ -9359,7 +9366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="13">
+    <row r="124" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
         <v>21</v>
       </c>
@@ -9411,7 +9418,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="13">
+    <row r="125" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="5" t="s">
         <v>21</v>
       </c>
@@ -9467,7 +9474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="13">
+    <row r="126" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
         <v>21</v>
       </c>
@@ -9529,7 +9536,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="13">
+    <row r="127" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
         <v>21</v>
       </c>
@@ -9577,7 +9584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="13">
+    <row r="128" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="5" t="s">
         <v>21</v>
       </c>
@@ -9639,7 +9646,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="13">
+    <row r="129" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="5" t="s">
         <v>21</v>
       </c>
@@ -9687,7 +9694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="13">
+    <row r="130" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="5" t="s">
         <v>21</v>
       </c>
@@ -9742,7 +9749,7 @@
       </c>
       <c r="U130" s="5"/>
     </row>
-    <row r="131" spans="1:21" ht="13">
+    <row r="131" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="s">
         <v>21</v>
       </c>
@@ -9790,7 +9797,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="13">
+    <row r="132" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="5" t="s">
         <v>21</v>
       </c>
@@ -9852,7 +9859,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="13">
+    <row r="133" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
         <v>21</v>
       </c>
@@ -9910,7 +9917,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="13">
+    <row r="134" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="s">
         <v>21</v>
       </c>
@@ -9975,7 +9982,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="13">
+    <row r="135" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="5" t="s">
         <v>21</v>
       </c>
@@ -10031,7 +10038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="13">
+    <row r="136" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
         <v>21</v>
       </c>
@@ -10083,7 +10090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="13">
+    <row r="137" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="s">
         <v>21</v>
       </c>
@@ -10137,7 +10144,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="13">
+    <row r="138" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
         <v>21</v>
       </c>
@@ -10196,7 +10203,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="13">
+    <row r="139" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="5" t="s">
         <v>21</v>
       </c>
@@ -10244,7 +10251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="13">
+    <row r="140" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
         <v>21</v>
       </c>
@@ -10292,7 +10299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="13">
+    <row r="141" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="5" t="s">
         <v>21</v>
       </c>
@@ -10348,7 +10355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="13">
+    <row r="142" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="5" t="s">
         <v>21</v>
       </c>
@@ -10410,7 +10417,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="13">
+    <row r="143" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
         <v>21</v>
       </c>
@@ -10458,7 +10465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="13">
+    <row r="144" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="5" t="s">
         <v>21</v>
       </c>
@@ -10512,7 +10519,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="13">
+    <row r="145" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="s">
         <v>21</v>
       </c>
@@ -10566,7 +10573,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="13">
+    <row r="146" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
         <v>21</v>
       </c>
@@ -10614,7 +10621,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="13">
+    <row r="147" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="5" t="s">
         <v>21</v>
       </c>
@@ -10670,7 +10677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="13">
+    <row r="148" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="5" t="s">
         <v>21</v>
       </c>
@@ -10722,7 +10729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="13">
+    <row r="149" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="5" t="s">
         <v>21</v>
       </c>
@@ -10770,7 +10777,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="13">
+    <row r="150" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="5" t="s">
         <v>21</v>
       </c>
@@ -10824,7 +10831,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="13">
+    <row r="151" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="5" t="s">
         <v>21</v>
       </c>
@@ -10872,7 +10879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="16">
+    <row r="152" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>21</v>
       </c>
@@ -10926,7 +10933,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="13">
+    <row r="153" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="s">
         <v>21</v>
       </c>
@@ -10972,7 +10979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="16">
+    <row r="154" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>21</v>
       </c>
@@ -11026,7 +11033,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="13">
+    <row r="155" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
         <v>21</v>
       </c>
@@ -11083,7 +11090,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="13">
+    <row r="156" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="5" t="s">
         <v>21</v>
       </c>
@@ -11140,7 +11147,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="13">
+    <row r="157" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="5" t="s">
         <v>21</v>
       </c>
@@ -11192,7 +11199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="13">
+    <row r="158" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="5" t="s">
         <v>21</v>
       </c>
@@ -11240,7 +11247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="13">
+    <row r="159" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="5" t="s">
         <v>21</v>
       </c>
@@ -11294,7 +11301,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="13">
+    <row r="160" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="5" t="s">
         <v>21</v>
       </c>
@@ -11352,7 +11359,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="13">
+    <row r="161" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="5" t="s">
         <v>21</v>
       </c>
@@ -11406,7 +11413,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="14">
+    <row r="162" spans="1:21" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="5" t="s">
         <v>21</v>
       </c>
@@ -11462,7 +11469,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="13">
+    <row r="163" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="5" t="s">
         <v>21</v>
       </c>
@@ -11516,7 +11523,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="13">
+    <row r="164" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="5" t="s">
         <v>21</v>
       </c>
@@ -11578,7 +11585,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="13">
+    <row r="165" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="5" t="s">
         <v>21</v>
       </c>
@@ -11629,7 +11636,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="13">
+    <row r="166" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="5" t="s">
         <v>21</v>
       </c>
@@ -11677,7 +11684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="13">
+    <row r="167" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="5" t="s">
         <v>21</v>
       </c>
@@ -11731,7 +11738,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="13">
+    <row r="168" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="s">
         <v>21</v>
       </c>
@@ -11782,7 +11789,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="13">
+    <row r="169" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="5" t="s">
         <v>21</v>
       </c>
@@ -11830,7 +11837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="13">
+    <row r="170" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="5" t="s">
         <v>21</v>
       </c>
@@ -11878,7 +11885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="13">
+    <row r="171" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="5" t="s">
         <v>21</v>
       </c>
@@ -11926,7 +11933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="13">
+    <row r="172" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="5" t="s">
         <v>21</v>
       </c>
@@ -11988,7 +11995,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="13">
+    <row r="173" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="5" t="s">
         <v>21</v>
       </c>
@@ -12044,7 +12051,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="13">
+    <row r="174" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="5" t="s">
         <v>21</v>
       </c>
@@ -12102,7 +12109,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="13">
+    <row r="175" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="5" t="s">
         <v>21</v>
       </c>
@@ -12167,7 +12174,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="13">
+    <row r="176" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="5" t="s">
         <v>21</v>
       </c>
@@ -12225,7 +12232,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="13">
+    <row r="177" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="5" t="s">
         <v>21</v>
       </c>
@@ -12236,7 +12243,7 @@
       <c r="N177" s="21"/>
       <c r="Q177" s="21"/>
     </row>
-    <row r="178" spans="1:17" ht="13">
+    <row r="178" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="5" t="s">
         <v>21</v>
       </c>
@@ -12247,7 +12254,7 @@
       <c r="N178" s="21"/>
       <c r="Q178" s="21"/>
     </row>
-    <row r="179" spans="1:17" ht="13">
+    <row r="179" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="5" t="s">
         <v>21</v>
       </c>
@@ -12258,7 +12265,7 @@
       <c r="N179" s="21"/>
       <c r="Q179" s="21"/>
     </row>
-    <row r="180" spans="1:17" ht="13">
+    <row r="180" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="5" t="s">
         <v>21</v>
       </c>
@@ -12269,7 +12276,7 @@
       <c r="N180" s="21"/>
       <c r="Q180" s="21"/>
     </row>
-    <row r="181" spans="1:17" ht="13">
+    <row r="181" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="5" t="s">
         <v>21</v>
       </c>
@@ -12280,7 +12287,7 @@
       <c r="N181" s="21"/>
       <c r="Q181" s="21"/>
     </row>
-    <row r="182" spans="1:17" ht="13">
+    <row r="182" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="5" t="s">
         <v>21</v>
       </c>
@@ -12291,7 +12298,7 @@
       <c r="N182" s="21"/>
       <c r="Q182" s="21"/>
     </row>
-    <row r="183" spans="1:17" ht="13">
+    <row r="183" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B183" s="5">
         <v>182</v>
       </c>
@@ -12299,7 +12306,7 @@
       <c r="N183" s="21"/>
       <c r="Q183" s="21"/>
     </row>
-    <row r="184" spans="1:17" ht="13">
+    <row r="184" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B184" s="5">
         <v>183</v>
       </c>
@@ -12307,7 +12314,7 @@
       <c r="N184" s="21"/>
       <c r="Q184" s="21"/>
     </row>
-    <row r="185" spans="1:17" ht="13">
+    <row r="185" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B185" s="5">
         <v>184</v>
       </c>
@@ -12315,7 +12322,7 @@
       <c r="N185" s="21"/>
       <c r="Q185" s="21"/>
     </row>
-    <row r="186" spans="1:17" ht="13">
+    <row r="186" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B186" s="5">
         <v>185</v>
       </c>
@@ -12323,7 +12330,7 @@
       <c r="N186" s="21"/>
       <c r="Q186" s="21"/>
     </row>
-    <row r="187" spans="1:17" ht="13">
+    <row r="187" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B187" s="5">
         <v>186</v>
       </c>
@@ -12331,7 +12338,7 @@
       <c r="N187" s="21"/>
       <c r="Q187" s="21"/>
     </row>
-    <row r="188" spans="1:17" ht="13">
+    <row r="188" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B188" s="5">
         <v>187</v>
       </c>
@@ -12339,7 +12346,7 @@
       <c r="N188" s="21"/>
       <c r="Q188" s="21"/>
     </row>
-    <row r="189" spans="1:17" ht="13">
+    <row r="189" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B189" s="5">
         <v>188</v>
       </c>
@@ -12347,7 +12354,7 @@
       <c r="N189" s="21"/>
       <c r="Q189" s="21"/>
     </row>
-    <row r="190" spans="1:17" ht="13">
+    <row r="190" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B190" s="5">
         <v>189</v>
       </c>
@@ -12355,7 +12362,7 @@
       <c r="N190" s="21"/>
       <c r="Q190" s="21"/>
     </row>
-    <row r="191" spans="1:17" ht="13">
+    <row r="191" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B191" s="5">
         <v>190</v>
       </c>
@@ -12363,7 +12370,7 @@
       <c r="N191" s="21"/>
       <c r="Q191" s="21"/>
     </row>
-    <row r="192" spans="1:17" ht="13">
+    <row r="192" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B192" s="5">
         <v>191</v>
       </c>
@@ -12371,7 +12378,7 @@
       <c r="N192" s="21"/>
       <c r="Q192" s="21"/>
     </row>
-    <row r="193" spans="2:17" ht="13">
+    <row r="193" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B193" s="5">
         <v>192</v>
       </c>
@@ -12379,7 +12386,7 @@
       <c r="N193" s="21"/>
       <c r="Q193" s="21"/>
     </row>
-    <row r="194" spans="2:17" ht="13">
+    <row r="194" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B194" s="5">
         <v>193</v>
       </c>
@@ -12387,7 +12394,7 @@
       <c r="N194" s="21"/>
       <c r="Q194" s="21"/>
     </row>
-    <row r="195" spans="2:17" ht="13">
+    <row r="195" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B195" s="5">
         <v>194</v>
       </c>
@@ -12395,7 +12402,7 @@
       <c r="N195" s="21"/>
       <c r="Q195" s="21"/>
     </row>
-    <row r="196" spans="2:17" ht="13">
+    <row r="196" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B196" s="5">
         <v>195</v>
       </c>
@@ -12403,7 +12410,7 @@
       <c r="N196" s="21"/>
       <c r="Q196" s="21"/>
     </row>
-    <row r="197" spans="2:17" ht="13">
+    <row r="197" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B197" s="5">
         <v>196</v>
       </c>
@@ -12411,7 +12418,7 @@
       <c r="N197" s="21"/>
       <c r="Q197" s="21"/>
     </row>
-    <row r="198" spans="2:17" ht="13">
+    <row r="198" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B198" s="5">
         <v>197</v>
       </c>
@@ -12419,7 +12426,7 @@
       <c r="N198" s="21"/>
       <c r="Q198" s="21"/>
     </row>
-    <row r="199" spans="2:17" ht="13">
+    <row r="199" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B199" s="5">
         <v>198</v>
       </c>
@@ -12427,7 +12434,7 @@
       <c r="N199" s="21"/>
       <c r="Q199" s="21"/>
     </row>
-    <row r="200" spans="2:17" ht="13">
+    <row r="200" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B200" s="5">
         <v>199</v>
       </c>
@@ -12435,7 +12442,7 @@
       <c r="N200" s="21"/>
       <c r="Q200" s="21"/>
     </row>
-    <row r="201" spans="2:17" ht="13">
+    <row r="201" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B201" s="5">
         <v>200</v>
       </c>
@@ -12443,7 +12450,7 @@
       <c r="N201" s="21"/>
       <c r="Q201" s="21"/>
     </row>
-    <row r="202" spans="2:17" ht="13">
+    <row r="202" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B202" s="5">
         <v>201</v>
       </c>
@@ -12451,7 +12458,7 @@
       <c r="N202" s="21"/>
       <c r="Q202" s="21"/>
     </row>
-    <row r="203" spans="2:17" ht="13">
+    <row r="203" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B203" s="5">
         <v>202</v>
       </c>
@@ -12459,7 +12466,7 @@
       <c r="N203" s="21"/>
       <c r="Q203" s="21"/>
     </row>
-    <row r="204" spans="2:17" ht="13">
+    <row r="204" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B204" s="5">
         <v>203</v>
       </c>
@@ -12467,7 +12474,7 @@
       <c r="N204" s="21"/>
       <c r="Q204" s="21"/>
     </row>
-    <row r="205" spans="2:17" ht="13">
+    <row r="205" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B205" s="5">
         <v>204</v>
       </c>
@@ -12475,7 +12482,7 @@
       <c r="N205" s="21"/>
       <c r="Q205" s="21"/>
     </row>
-    <row r="206" spans="2:17" ht="13">
+    <row r="206" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B206" s="5">
         <v>205</v>
       </c>
@@ -12483,7 +12490,7 @@
       <c r="N206" s="21"/>
       <c r="Q206" s="21"/>
     </row>
-    <row r="207" spans="2:17" ht="13">
+    <row r="207" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B207" s="5">
         <v>206</v>
       </c>
@@ -12491,7 +12498,7 @@
       <c r="N207" s="21"/>
       <c r="Q207" s="21"/>
     </row>
-    <row r="208" spans="2:17" ht="13">
+    <row r="208" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B208" s="5">
         <v>207</v>
       </c>
@@ -12499,7 +12506,7 @@
       <c r="N208" s="21"/>
       <c r="Q208" s="21"/>
     </row>
-    <row r="209" spans="2:17" ht="13">
+    <row r="209" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B209" s="5">
         <v>208</v>
       </c>
@@ -12507,7 +12514,7 @@
       <c r="N209" s="21"/>
       <c r="Q209" s="21"/>
     </row>
-    <row r="210" spans="2:17" ht="13">
+    <row r="210" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B210" s="5">
         <v>209</v>
       </c>
@@ -12515,7 +12522,7 @@
       <c r="N210" s="21"/>
       <c r="Q210" s="21"/>
     </row>
-    <row r="211" spans="2:17" ht="13">
+    <row r="211" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B211" s="5">
         <v>210</v>
       </c>
@@ -12523,7 +12530,7 @@
       <c r="N211" s="21"/>
       <c r="Q211" s="21"/>
     </row>
-    <row r="212" spans="2:17" ht="13">
+    <row r="212" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B212" s="5">
         <v>211</v>
       </c>
@@ -12531,7 +12538,7 @@
       <c r="N212" s="21"/>
       <c r="Q212" s="21"/>
     </row>
-    <row r="213" spans="2:17" ht="13">
+    <row r="213" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B213" s="5">
         <v>212</v>
       </c>
@@ -12539,7 +12546,7 @@
       <c r="N213" s="21"/>
       <c r="Q213" s="21"/>
     </row>
-    <row r="214" spans="2:17" ht="13">
+    <row r="214" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B214" s="5">
         <v>213</v>
       </c>
@@ -12547,7 +12554,7 @@
       <c r="N214" s="21"/>
       <c r="Q214" s="21"/>
     </row>
-    <row r="215" spans="2:17" ht="13">
+    <row r="215" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B215" s="5">
         <v>214</v>
       </c>
@@ -12555,7 +12562,7 @@
       <c r="N215" s="21"/>
       <c r="Q215" s="21"/>
     </row>
-    <row r="216" spans="2:17" ht="13">
+    <row r="216" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B216" s="5">
         <v>215</v>
       </c>
@@ -12563,7 +12570,7 @@
       <c r="N216" s="21"/>
       <c r="Q216" s="21"/>
     </row>
-    <row r="217" spans="2:17" ht="13">
+    <row r="217" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B217" s="5">
         <v>216</v>
       </c>
@@ -12571,7 +12578,7 @@
       <c r="N217" s="21"/>
       <c r="Q217" s="21"/>
     </row>
-    <row r="218" spans="2:17" ht="13">
+    <row r="218" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B218" s="5">
         <v>217</v>
       </c>
@@ -12579,7 +12586,7 @@
       <c r="N218" s="21"/>
       <c r="Q218" s="21"/>
     </row>
-    <row r="219" spans="2:17" ht="13">
+    <row r="219" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B219" s="5">
         <v>218</v>
       </c>
@@ -12587,7 +12594,7 @@
       <c r="N219" s="21"/>
       <c r="Q219" s="21"/>
     </row>
-    <row r="220" spans="2:17" ht="13">
+    <row r="220" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B220" s="5">
         <v>219</v>
       </c>
@@ -12595,7 +12602,7 @@
       <c r="N220" s="21"/>
       <c r="Q220" s="21"/>
     </row>
-    <row r="221" spans="2:17" ht="13">
+    <row r="221" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B221" s="5">
         <v>220</v>
       </c>
@@ -12603,7 +12610,7 @@
       <c r="N221" s="21"/>
       <c r="Q221" s="21"/>
     </row>
-    <row r="222" spans="2:17" ht="13">
+    <row r="222" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B222" s="5">
         <v>221</v>
       </c>
@@ -12611,7 +12618,7 @@
       <c r="N222" s="21"/>
       <c r="Q222" s="21"/>
     </row>
-    <row r="223" spans="2:17" ht="13">
+    <row r="223" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B223" s="5">
         <v>222</v>
       </c>
@@ -12619,7 +12626,7 @@
       <c r="N223" s="21"/>
       <c r="Q223" s="21"/>
     </row>
-    <row r="224" spans="2:17" ht="13">
+    <row r="224" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B224" s="5">
         <v>223</v>
       </c>
@@ -12627,7 +12634,7 @@
       <c r="N224" s="21"/>
       <c r="Q224" s="21"/>
     </row>
-    <row r="225" spans="2:17" ht="13">
+    <row r="225" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B225" s="5">
         <v>224</v>
       </c>
@@ -12635,7 +12642,7 @@
       <c r="N225" s="21"/>
       <c r="Q225" s="21"/>
     </row>
-    <row r="226" spans="2:17" ht="13">
+    <row r="226" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B226" s="5">
         <v>225</v>
       </c>
@@ -12643,7 +12650,7 @@
       <c r="N226" s="21"/>
       <c r="Q226" s="21"/>
     </row>
-    <row r="227" spans="2:17" ht="13">
+    <row r="227" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B227" s="5">
         <v>226</v>
       </c>
@@ -12651,7 +12658,7 @@
       <c r="N227" s="21"/>
       <c r="Q227" s="21"/>
     </row>
-    <row r="228" spans="2:17" ht="13">
+    <row r="228" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B228" s="5">
         <v>227</v>
       </c>
@@ -12659,7 +12666,7 @@
       <c r="N228" s="21"/>
       <c r="Q228" s="21"/>
     </row>
-    <row r="229" spans="2:17" ht="13">
+    <row r="229" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B229" s="5">
         <v>228</v>
       </c>
@@ -12667,7 +12674,7 @@
       <c r="N229" s="21"/>
       <c r="Q229" s="21"/>
     </row>
-    <row r="230" spans="2:17" ht="13">
+    <row r="230" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B230" s="5">
         <v>229</v>
       </c>
@@ -12675,7 +12682,7 @@
       <c r="N230" s="21"/>
       <c r="Q230" s="21"/>
     </row>
-    <row r="231" spans="2:17" ht="13">
+    <row r="231" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B231" s="5">
         <v>230</v>
       </c>
@@ -12683,7 +12690,7 @@
       <c r="N231" s="21"/>
       <c r="Q231" s="21"/>
     </row>
-    <row r="232" spans="2:17" ht="13">
+    <row r="232" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B232" s="5">
         <v>231</v>
       </c>
@@ -12691,7 +12698,7 @@
       <c r="N232" s="21"/>
       <c r="Q232" s="21"/>
     </row>
-    <row r="233" spans="2:17" ht="13">
+    <row r="233" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B233" s="5">
         <v>232</v>
       </c>
@@ -12699,7 +12706,7 @@
       <c r="N233" s="21"/>
       <c r="Q233" s="21"/>
     </row>
-    <row r="234" spans="2:17" ht="13">
+    <row r="234" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B234" s="5">
         <v>233</v>
       </c>
@@ -12707,7 +12714,7 @@
       <c r="N234" s="21"/>
       <c r="Q234" s="21"/>
     </row>
-    <row r="235" spans="2:17" ht="13">
+    <row r="235" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B235" s="5">
         <v>234</v>
       </c>
@@ -12715,7 +12722,7 @@
       <c r="N235" s="21"/>
       <c r="Q235" s="21"/>
     </row>
-    <row r="236" spans="2:17" ht="13">
+    <row r="236" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B236" s="5">
         <v>235</v>
       </c>
@@ -12723,7 +12730,7 @@
       <c r="N236" s="21"/>
       <c r="Q236" s="21"/>
     </row>
-    <row r="237" spans="2:17" ht="13">
+    <row r="237" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B237" s="5">
         <v>236</v>
       </c>
@@ -12731,7 +12738,7 @@
       <c r="N237" s="21"/>
       <c r="Q237" s="21"/>
     </row>
-    <row r="238" spans="2:17" ht="13">
+    <row r="238" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B238" s="5">
         <v>237</v>
       </c>
@@ -12739,7 +12746,7 @@
       <c r="N238" s="21"/>
       <c r="Q238" s="21"/>
     </row>
-    <row r="239" spans="2:17" ht="13">
+    <row r="239" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B239" s="5">
         <v>238</v>
       </c>
@@ -12747,7 +12754,7 @@
       <c r="N239" s="21"/>
       <c r="Q239" s="21"/>
     </row>
-    <row r="240" spans="2:17" ht="13">
+    <row r="240" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B240" s="5">
         <v>239</v>
       </c>
@@ -12755,7 +12762,7 @@
       <c r="N240" s="21"/>
       <c r="Q240" s="21"/>
     </row>
-    <row r="241" spans="2:17" ht="13">
+    <row r="241" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B241" s="5">
         <v>240</v>
       </c>
@@ -12763,7 +12770,7 @@
       <c r="N241" s="21"/>
       <c r="Q241" s="21"/>
     </row>
-    <row r="242" spans="2:17" ht="13">
+    <row r="242" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="B242" s="5">
         <v>241</v>
       </c>
@@ -12771,3807 +12778,3807 @@
       <c r="N242" s="21"/>
       <c r="Q242" s="21"/>
     </row>
-    <row r="243" spans="2:17" ht="13">
+    <row r="243" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J243" s="21"/>
       <c r="N243" s="21"/>
       <c r="Q243" s="21"/>
     </row>
-    <row r="244" spans="2:17" ht="13">
+    <row r="244" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J244" s="21"/>
       <c r="N244" s="21"/>
       <c r="Q244" s="21"/>
     </row>
-    <row r="245" spans="2:17" ht="13">
+    <row r="245" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J245" s="21"/>
       <c r="N245" s="21"/>
       <c r="Q245" s="21"/>
     </row>
-    <row r="246" spans="2:17" ht="13">
+    <row r="246" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J246" s="21"/>
       <c r="N246" s="21"/>
       <c r="Q246" s="21"/>
     </row>
-    <row r="247" spans="2:17" ht="13">
+    <row r="247" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J247" s="21"/>
       <c r="N247" s="21"/>
       <c r="Q247" s="21"/>
     </row>
-    <row r="248" spans="2:17" ht="13">
+    <row r="248" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J248" s="21"/>
       <c r="N248" s="21"/>
       <c r="Q248" s="21"/>
     </row>
-    <row r="249" spans="2:17" ht="13">
+    <row r="249" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J249" s="21"/>
       <c r="N249" s="21"/>
       <c r="Q249" s="21"/>
     </row>
-    <row r="250" spans="2:17" ht="13">
+    <row r="250" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J250" s="21"/>
       <c r="N250" s="21"/>
       <c r="Q250" s="21"/>
     </row>
-    <row r="251" spans="2:17" ht="13">
+    <row r="251" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J251" s="21"/>
       <c r="N251" s="21"/>
       <c r="Q251" s="21"/>
     </row>
-    <row r="252" spans="2:17" ht="13">
+    <row r="252" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J252" s="21"/>
       <c r="N252" s="21"/>
       <c r="Q252" s="21"/>
     </row>
-    <row r="253" spans="2:17" ht="13">
+    <row r="253" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J253" s="21"/>
       <c r="N253" s="21"/>
       <c r="Q253" s="21"/>
     </row>
-    <row r="254" spans="2:17" ht="13">
+    <row r="254" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J254" s="21"/>
       <c r="N254" s="21"/>
       <c r="Q254" s="21"/>
     </row>
-    <row r="255" spans="2:17" ht="13">
+    <row r="255" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J255" s="21"/>
       <c r="N255" s="21"/>
       <c r="Q255" s="21"/>
     </row>
-    <row r="256" spans="2:17" ht="13">
+    <row r="256" spans="2:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J256" s="21"/>
       <c r="N256" s="21"/>
       <c r="Q256" s="21"/>
     </row>
-    <row r="257" spans="10:17" ht="13">
+    <row r="257" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J257" s="21"/>
       <c r="N257" s="21"/>
       <c r="Q257" s="21"/>
     </row>
-    <row r="258" spans="10:17" ht="13">
+    <row r="258" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J258" s="21"/>
       <c r="N258" s="21"/>
       <c r="Q258" s="21"/>
     </row>
-    <row r="259" spans="10:17" ht="13">
+    <row r="259" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J259" s="21"/>
       <c r="N259" s="21"/>
       <c r="Q259" s="21"/>
     </row>
-    <row r="260" spans="10:17" ht="13">
+    <row r="260" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J260" s="21"/>
       <c r="N260" s="21"/>
       <c r="Q260" s="21"/>
     </row>
-    <row r="261" spans="10:17" ht="13">
+    <row r="261" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J261" s="21"/>
       <c r="N261" s="21"/>
       <c r="Q261" s="21"/>
     </row>
-    <row r="262" spans="10:17" ht="13">
+    <row r="262" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J262" s="21"/>
       <c r="N262" s="21"/>
       <c r="Q262" s="21"/>
     </row>
-    <row r="263" spans="10:17" ht="13">
+    <row r="263" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J263" s="21"/>
       <c r="N263" s="21"/>
       <c r="Q263" s="21"/>
     </row>
-    <row r="264" spans="10:17" ht="13">
+    <row r="264" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J264" s="21"/>
       <c r="N264" s="21"/>
       <c r="Q264" s="21"/>
     </row>
-    <row r="265" spans="10:17" ht="13">
+    <row r="265" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J265" s="21"/>
       <c r="N265" s="21"/>
       <c r="Q265" s="21"/>
     </row>
-    <row r="266" spans="10:17" ht="13">
+    <row r="266" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J266" s="21"/>
       <c r="N266" s="21"/>
       <c r="Q266" s="21"/>
     </row>
-    <row r="267" spans="10:17" ht="13">
+    <row r="267" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J267" s="21"/>
       <c r="N267" s="21"/>
       <c r="Q267" s="21"/>
     </row>
-    <row r="268" spans="10:17" ht="13">
+    <row r="268" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J268" s="21"/>
       <c r="N268" s="21"/>
       <c r="Q268" s="21"/>
     </row>
-    <row r="269" spans="10:17" ht="13">
+    <row r="269" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J269" s="21"/>
       <c r="N269" s="21"/>
       <c r="Q269" s="21"/>
     </row>
-    <row r="270" spans="10:17" ht="13">
+    <row r="270" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J270" s="21"/>
       <c r="N270" s="21"/>
       <c r="Q270" s="21"/>
     </row>
-    <row r="271" spans="10:17" ht="13">
+    <row r="271" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J271" s="21"/>
       <c r="N271" s="21"/>
       <c r="Q271" s="21"/>
     </row>
-    <row r="272" spans="10:17" ht="13">
+    <row r="272" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J272" s="21"/>
       <c r="N272" s="21"/>
       <c r="Q272" s="21"/>
     </row>
-    <row r="273" spans="10:17" ht="13">
+    <row r="273" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J273" s="21"/>
       <c r="N273" s="21"/>
       <c r="Q273" s="21"/>
     </row>
-    <row r="274" spans="10:17" ht="13">
+    <row r="274" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J274" s="21"/>
       <c r="N274" s="21"/>
       <c r="Q274" s="21"/>
     </row>
-    <row r="275" spans="10:17" ht="13">
+    <row r="275" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J275" s="21"/>
       <c r="N275" s="21"/>
       <c r="Q275" s="21"/>
     </row>
-    <row r="276" spans="10:17" ht="13">
+    <row r="276" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J276" s="21"/>
       <c r="N276" s="21"/>
       <c r="Q276" s="21"/>
     </row>
-    <row r="277" spans="10:17" ht="13">
+    <row r="277" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J277" s="21"/>
       <c r="N277" s="21"/>
       <c r="Q277" s="21"/>
     </row>
-    <row r="278" spans="10:17" ht="13">
+    <row r="278" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J278" s="21"/>
       <c r="N278" s="21"/>
       <c r="Q278" s="21"/>
     </row>
-    <row r="279" spans="10:17" ht="13">
+    <row r="279" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J279" s="21"/>
       <c r="N279" s="21"/>
       <c r="Q279" s="21"/>
     </row>
-    <row r="280" spans="10:17" ht="13">
+    <row r="280" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J280" s="21"/>
       <c r="N280" s="21"/>
       <c r="Q280" s="21"/>
     </row>
-    <row r="281" spans="10:17" ht="13">
+    <row r="281" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J281" s="21"/>
       <c r="N281" s="21"/>
       <c r="Q281" s="21"/>
     </row>
-    <row r="282" spans="10:17" ht="13">
+    <row r="282" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J282" s="21"/>
       <c r="N282" s="21"/>
       <c r="Q282" s="21"/>
     </row>
-    <row r="283" spans="10:17" ht="13">
+    <row r="283" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J283" s="21"/>
       <c r="N283" s="21"/>
       <c r="Q283" s="21"/>
     </row>
-    <row r="284" spans="10:17" ht="13">
+    <row r="284" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J284" s="21"/>
       <c r="N284" s="21"/>
       <c r="Q284" s="21"/>
     </row>
-    <row r="285" spans="10:17" ht="13">
+    <row r="285" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J285" s="21"/>
       <c r="N285" s="21"/>
       <c r="Q285" s="21"/>
     </row>
-    <row r="286" spans="10:17" ht="13">
+    <row r="286" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J286" s="21"/>
       <c r="N286" s="21"/>
       <c r="Q286" s="21"/>
     </row>
-    <row r="287" spans="10:17" ht="13">
+    <row r="287" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J287" s="21"/>
       <c r="N287" s="21"/>
       <c r="Q287" s="21"/>
     </row>
-    <row r="288" spans="10:17" ht="13">
+    <row r="288" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J288" s="21"/>
       <c r="N288" s="21"/>
       <c r="Q288" s="21"/>
     </row>
-    <row r="289" spans="10:17" ht="13">
+    <row r="289" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J289" s="21"/>
       <c r="N289" s="21"/>
       <c r="Q289" s="21"/>
     </row>
-    <row r="290" spans="10:17" ht="13">
+    <row r="290" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J290" s="21"/>
       <c r="N290" s="21"/>
       <c r="Q290" s="21"/>
     </row>
-    <row r="291" spans="10:17" ht="13">
+    <row r="291" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J291" s="21"/>
       <c r="N291" s="21"/>
       <c r="Q291" s="21"/>
     </row>
-    <row r="292" spans="10:17" ht="13">
+    <row r="292" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J292" s="21"/>
       <c r="N292" s="21"/>
       <c r="Q292" s="21"/>
     </row>
-    <row r="293" spans="10:17" ht="13">
+    <row r="293" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J293" s="21"/>
       <c r="N293" s="21"/>
       <c r="Q293" s="21"/>
     </row>
-    <row r="294" spans="10:17" ht="13">
+    <row r="294" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J294" s="21"/>
       <c r="N294" s="21"/>
       <c r="Q294" s="21"/>
     </row>
-    <row r="295" spans="10:17" ht="13">
+    <row r="295" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J295" s="21"/>
       <c r="N295" s="21"/>
       <c r="Q295" s="21"/>
     </row>
-    <row r="296" spans="10:17" ht="13">
+    <row r="296" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J296" s="21"/>
       <c r="N296" s="21"/>
       <c r="Q296" s="21"/>
     </row>
-    <row r="297" spans="10:17" ht="13">
+    <row r="297" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J297" s="21"/>
       <c r="N297" s="21"/>
       <c r="Q297" s="21"/>
     </row>
-    <row r="298" spans="10:17" ht="13">
+    <row r="298" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J298" s="21"/>
       <c r="N298" s="21"/>
       <c r="Q298" s="21"/>
     </row>
-    <row r="299" spans="10:17" ht="13">
+    <row r="299" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J299" s="21"/>
       <c r="N299" s="21"/>
       <c r="Q299" s="21"/>
     </row>
-    <row r="300" spans="10:17" ht="13">
+    <row r="300" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J300" s="21"/>
       <c r="N300" s="21"/>
       <c r="Q300" s="21"/>
     </row>
-    <row r="301" spans="10:17" ht="13">
+    <row r="301" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J301" s="21"/>
       <c r="N301" s="21"/>
       <c r="Q301" s="21"/>
     </row>
-    <row r="302" spans="10:17" ht="13">
+    <row r="302" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J302" s="21"/>
       <c r="N302" s="21"/>
       <c r="Q302" s="21"/>
     </row>
-    <row r="303" spans="10:17" ht="13">
+    <row r="303" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J303" s="21"/>
       <c r="N303" s="21"/>
       <c r="Q303" s="21"/>
     </row>
-    <row r="304" spans="10:17" ht="13">
+    <row r="304" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J304" s="21"/>
       <c r="N304" s="21"/>
       <c r="Q304" s="21"/>
     </row>
-    <row r="305" spans="10:17" ht="13">
+    <row r="305" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J305" s="21"/>
       <c r="N305" s="21"/>
       <c r="Q305" s="21"/>
     </row>
-    <row r="306" spans="10:17" ht="13">
+    <row r="306" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J306" s="21"/>
       <c r="N306" s="21"/>
       <c r="Q306" s="21"/>
     </row>
-    <row r="307" spans="10:17" ht="13">
+    <row r="307" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J307" s="21"/>
       <c r="N307" s="21"/>
       <c r="Q307" s="21"/>
     </row>
-    <row r="308" spans="10:17" ht="13">
+    <row r="308" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J308" s="21"/>
       <c r="N308" s="21"/>
       <c r="Q308" s="21"/>
     </row>
-    <row r="309" spans="10:17" ht="13">
+    <row r="309" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J309" s="21"/>
       <c r="N309" s="21"/>
       <c r="Q309" s="21"/>
     </row>
-    <row r="310" spans="10:17" ht="13">
+    <row r="310" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J310" s="21"/>
       <c r="N310" s="21"/>
       <c r="Q310" s="21"/>
     </row>
-    <row r="311" spans="10:17" ht="13">
+    <row r="311" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J311" s="21"/>
       <c r="N311" s="21"/>
       <c r="Q311" s="21"/>
     </row>
-    <row r="312" spans="10:17" ht="13">
+    <row r="312" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J312" s="21"/>
       <c r="N312" s="21"/>
       <c r="Q312" s="21"/>
     </row>
-    <row r="313" spans="10:17" ht="13">
+    <row r="313" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J313" s="21"/>
       <c r="N313" s="21"/>
       <c r="Q313" s="21"/>
     </row>
-    <row r="314" spans="10:17" ht="13">
+    <row r="314" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J314" s="21"/>
       <c r="N314" s="21"/>
       <c r="Q314" s="21"/>
     </row>
-    <row r="315" spans="10:17" ht="13">
+    <row r="315" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J315" s="21"/>
       <c r="N315" s="21"/>
       <c r="Q315" s="21"/>
     </row>
-    <row r="316" spans="10:17" ht="13">
+    <row r="316" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J316" s="21"/>
       <c r="N316" s="21"/>
       <c r="Q316" s="21"/>
     </row>
-    <row r="317" spans="10:17" ht="13">
+    <row r="317" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J317" s="21"/>
       <c r="N317" s="21"/>
       <c r="Q317" s="21"/>
     </row>
-    <row r="318" spans="10:17" ht="13">
+    <row r="318" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J318" s="21"/>
       <c r="N318" s="21"/>
       <c r="Q318" s="21"/>
     </row>
-    <row r="319" spans="10:17" ht="13">
+    <row r="319" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J319" s="21"/>
       <c r="N319" s="21"/>
       <c r="Q319" s="21"/>
     </row>
-    <row r="320" spans="10:17" ht="13">
+    <row r="320" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J320" s="21"/>
       <c r="N320" s="21"/>
       <c r="Q320" s="21"/>
     </row>
-    <row r="321" spans="10:17" ht="13">
+    <row r="321" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J321" s="21"/>
       <c r="N321" s="21"/>
       <c r="Q321" s="21"/>
     </row>
-    <row r="322" spans="10:17" ht="13">
+    <row r="322" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J322" s="21"/>
       <c r="N322" s="21"/>
       <c r="Q322" s="21"/>
     </row>
-    <row r="323" spans="10:17" ht="13">
+    <row r="323" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J323" s="21"/>
       <c r="N323" s="21"/>
       <c r="Q323" s="21"/>
     </row>
-    <row r="324" spans="10:17" ht="13">
+    <row r="324" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J324" s="21"/>
       <c r="N324" s="21"/>
       <c r="Q324" s="21"/>
     </row>
-    <row r="325" spans="10:17" ht="13">
+    <row r="325" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J325" s="21"/>
       <c r="N325" s="21"/>
       <c r="Q325" s="21"/>
     </row>
-    <row r="326" spans="10:17" ht="13">
+    <row r="326" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J326" s="21"/>
       <c r="N326" s="21"/>
       <c r="Q326" s="21"/>
     </row>
-    <row r="327" spans="10:17" ht="13">
+    <row r="327" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J327" s="21"/>
       <c r="N327" s="21"/>
       <c r="Q327" s="21"/>
     </row>
-    <row r="328" spans="10:17" ht="13">
+    <row r="328" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J328" s="21"/>
       <c r="N328" s="21"/>
       <c r="Q328" s="21"/>
     </row>
-    <row r="329" spans="10:17" ht="13">
+    <row r="329" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J329" s="21"/>
       <c r="N329" s="21"/>
       <c r="Q329" s="21"/>
     </row>
-    <row r="330" spans="10:17" ht="13">
+    <row r="330" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J330" s="21"/>
       <c r="N330" s="21"/>
       <c r="Q330" s="21"/>
     </row>
-    <row r="331" spans="10:17" ht="13">
+    <row r="331" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J331" s="21"/>
       <c r="N331" s="21"/>
       <c r="Q331" s="21"/>
     </row>
-    <row r="332" spans="10:17" ht="13">
+    <row r="332" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J332" s="21"/>
       <c r="N332" s="21"/>
       <c r="Q332" s="21"/>
     </row>
-    <row r="333" spans="10:17" ht="13">
+    <row r="333" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J333" s="21"/>
       <c r="N333" s="21"/>
       <c r="Q333" s="21"/>
     </row>
-    <row r="334" spans="10:17" ht="13">
+    <row r="334" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J334" s="21"/>
       <c r="N334" s="21"/>
       <c r="Q334" s="21"/>
     </row>
-    <row r="335" spans="10:17" ht="13">
+    <row r="335" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J335" s="21"/>
       <c r="N335" s="21"/>
       <c r="Q335" s="21"/>
     </row>
-    <row r="336" spans="10:17" ht="13">
+    <row r="336" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J336" s="21"/>
       <c r="N336" s="21"/>
       <c r="Q336" s="21"/>
     </row>
-    <row r="337" spans="10:17" ht="13">
+    <row r="337" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J337" s="21"/>
       <c r="N337" s="21"/>
       <c r="Q337" s="21"/>
     </row>
-    <row r="338" spans="10:17" ht="13">
+    <row r="338" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J338" s="21"/>
       <c r="N338" s="21"/>
       <c r="Q338" s="21"/>
     </row>
-    <row r="339" spans="10:17" ht="13">
+    <row r="339" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J339" s="21"/>
       <c r="N339" s="21"/>
       <c r="Q339" s="21"/>
     </row>
-    <row r="340" spans="10:17" ht="13">
+    <row r="340" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J340" s="21"/>
       <c r="N340" s="21"/>
       <c r="Q340" s="21"/>
     </row>
-    <row r="341" spans="10:17" ht="13">
+    <row r="341" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J341" s="21"/>
       <c r="N341" s="21"/>
       <c r="Q341" s="21"/>
     </row>
-    <row r="342" spans="10:17" ht="13">
+    <row r="342" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J342" s="21"/>
       <c r="N342" s="21"/>
       <c r="Q342" s="21"/>
     </row>
-    <row r="343" spans="10:17" ht="13">
+    <row r="343" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J343" s="21"/>
       <c r="N343" s="21"/>
       <c r="Q343" s="21"/>
     </row>
-    <row r="344" spans="10:17" ht="13">
+    <row r="344" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J344" s="21"/>
       <c r="N344" s="21"/>
       <c r="Q344" s="21"/>
     </row>
-    <row r="345" spans="10:17" ht="13">
+    <row r="345" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J345" s="21"/>
       <c r="N345" s="21"/>
       <c r="Q345" s="21"/>
     </row>
-    <row r="346" spans="10:17" ht="13">
+    <row r="346" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J346" s="21"/>
       <c r="N346" s="21"/>
       <c r="Q346" s="21"/>
     </row>
-    <row r="347" spans="10:17" ht="13">
+    <row r="347" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J347" s="21"/>
       <c r="N347" s="21"/>
       <c r="Q347" s="21"/>
     </row>
-    <row r="348" spans="10:17" ht="13">
+    <row r="348" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J348" s="21"/>
       <c r="N348" s="21"/>
       <c r="Q348" s="21"/>
     </row>
-    <row r="349" spans="10:17" ht="13">
+    <row r="349" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J349" s="21"/>
       <c r="N349" s="21"/>
       <c r="Q349" s="21"/>
     </row>
-    <row r="350" spans="10:17" ht="13">
+    <row r="350" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J350" s="21"/>
       <c r="N350" s="21"/>
       <c r="Q350" s="21"/>
     </row>
-    <row r="351" spans="10:17" ht="13">
+    <row r="351" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J351" s="21"/>
       <c r="N351" s="21"/>
       <c r="Q351" s="21"/>
     </row>
-    <row r="352" spans="10:17" ht="13">
+    <row r="352" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J352" s="21"/>
       <c r="N352" s="21"/>
       <c r="Q352" s="21"/>
     </row>
-    <row r="353" spans="10:17" ht="13">
+    <row r="353" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J353" s="21"/>
       <c r="N353" s="21"/>
       <c r="Q353" s="21"/>
     </row>
-    <row r="354" spans="10:17" ht="13">
+    <row r="354" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J354" s="21"/>
       <c r="N354" s="21"/>
       <c r="Q354" s="21"/>
     </row>
-    <row r="355" spans="10:17" ht="13">
+    <row r="355" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J355" s="21"/>
       <c r="N355" s="21"/>
       <c r="Q355" s="21"/>
     </row>
-    <row r="356" spans="10:17" ht="13">
+    <row r="356" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J356" s="21"/>
       <c r="N356" s="21"/>
       <c r="Q356" s="21"/>
     </row>
-    <row r="357" spans="10:17" ht="13">
+    <row r="357" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J357" s="21"/>
       <c r="N357" s="21"/>
       <c r="Q357" s="21"/>
     </row>
-    <row r="358" spans="10:17" ht="13">
+    <row r="358" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J358" s="21"/>
       <c r="N358" s="21"/>
       <c r="Q358" s="21"/>
     </row>
-    <row r="359" spans="10:17" ht="13">
+    <row r="359" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J359" s="21"/>
       <c r="N359" s="21"/>
       <c r="Q359" s="21"/>
     </row>
-    <row r="360" spans="10:17" ht="13">
+    <row r="360" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J360" s="21"/>
       <c r="N360" s="21"/>
       <c r="Q360" s="21"/>
     </row>
-    <row r="361" spans="10:17" ht="13">
+    <row r="361" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J361" s="21"/>
       <c r="N361" s="21"/>
       <c r="Q361" s="21"/>
     </row>
-    <row r="362" spans="10:17" ht="13">
+    <row r="362" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J362" s="21"/>
       <c r="N362" s="21"/>
       <c r="Q362" s="21"/>
     </row>
-    <row r="363" spans="10:17" ht="13">
+    <row r="363" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J363" s="21"/>
       <c r="N363" s="21"/>
       <c r="Q363" s="21"/>
     </row>
-    <row r="364" spans="10:17" ht="13">
+    <row r="364" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J364" s="21"/>
       <c r="N364" s="21"/>
       <c r="Q364" s="21"/>
     </row>
-    <row r="365" spans="10:17" ht="13">
+    <row r="365" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J365" s="21"/>
       <c r="N365" s="21"/>
       <c r="Q365" s="21"/>
     </row>
-    <row r="366" spans="10:17" ht="13">
+    <row r="366" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J366" s="21"/>
       <c r="N366" s="21"/>
       <c r="Q366" s="21"/>
     </row>
-    <row r="367" spans="10:17" ht="13">
+    <row r="367" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J367" s="21"/>
       <c r="N367" s="21"/>
       <c r="Q367" s="21"/>
     </row>
-    <row r="368" spans="10:17" ht="13">
+    <row r="368" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J368" s="21"/>
       <c r="N368" s="21"/>
       <c r="Q368" s="21"/>
     </row>
-    <row r="369" spans="10:17" ht="13">
+    <row r="369" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J369" s="21"/>
       <c r="N369" s="21"/>
       <c r="Q369" s="21"/>
     </row>
-    <row r="370" spans="10:17" ht="13">
+    <row r="370" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J370" s="21"/>
       <c r="N370" s="21"/>
       <c r="Q370" s="21"/>
     </row>
-    <row r="371" spans="10:17" ht="13">
+    <row r="371" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J371" s="21"/>
       <c r="N371" s="21"/>
       <c r="Q371" s="21"/>
     </row>
-    <row r="372" spans="10:17" ht="13">
+    <row r="372" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J372" s="21"/>
       <c r="N372" s="21"/>
       <c r="Q372" s="21"/>
     </row>
-    <row r="373" spans="10:17" ht="13">
+    <row r="373" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J373" s="21"/>
       <c r="N373" s="21"/>
       <c r="Q373" s="21"/>
     </row>
-    <row r="374" spans="10:17" ht="13">
+    <row r="374" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J374" s="21"/>
       <c r="N374" s="21"/>
       <c r="Q374" s="21"/>
     </row>
-    <row r="375" spans="10:17" ht="13">
+    <row r="375" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J375" s="21"/>
       <c r="N375" s="21"/>
       <c r="Q375" s="21"/>
     </row>
-    <row r="376" spans="10:17" ht="13">
+    <row r="376" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J376" s="21"/>
       <c r="N376" s="21"/>
       <c r="Q376" s="21"/>
     </row>
-    <row r="377" spans="10:17" ht="13">
+    <row r="377" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J377" s="21"/>
       <c r="N377" s="21"/>
       <c r="Q377" s="21"/>
     </row>
-    <row r="378" spans="10:17" ht="13">
+    <row r="378" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J378" s="21"/>
       <c r="N378" s="21"/>
       <c r="Q378" s="21"/>
     </row>
-    <row r="379" spans="10:17" ht="13">
+    <row r="379" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J379" s="21"/>
       <c r="N379" s="21"/>
       <c r="Q379" s="21"/>
     </row>
-    <row r="380" spans="10:17" ht="13">
+    <row r="380" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J380" s="21"/>
       <c r="N380" s="21"/>
       <c r="Q380" s="21"/>
     </row>
-    <row r="381" spans="10:17" ht="13">
+    <row r="381" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J381" s="21"/>
       <c r="N381" s="21"/>
       <c r="Q381" s="21"/>
     </row>
-    <row r="382" spans="10:17" ht="13">
+    <row r="382" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J382" s="21"/>
       <c r="N382" s="21"/>
       <c r="Q382" s="21"/>
     </row>
-    <row r="383" spans="10:17" ht="13">
+    <row r="383" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J383" s="21"/>
       <c r="N383" s="21"/>
       <c r="Q383" s="21"/>
     </row>
-    <row r="384" spans="10:17" ht="13">
+    <row r="384" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J384" s="21"/>
       <c r="N384" s="21"/>
       <c r="Q384" s="21"/>
     </row>
-    <row r="385" spans="10:17" ht="13">
+    <row r="385" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J385" s="21"/>
       <c r="N385" s="21"/>
       <c r="Q385" s="21"/>
     </row>
-    <row r="386" spans="10:17" ht="13">
+    <row r="386" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J386" s="21"/>
       <c r="N386" s="21"/>
       <c r="Q386" s="21"/>
     </row>
-    <row r="387" spans="10:17" ht="13">
+    <row r="387" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J387" s="21"/>
       <c r="N387" s="21"/>
       <c r="Q387" s="21"/>
     </row>
-    <row r="388" spans="10:17" ht="13">
+    <row r="388" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J388" s="21"/>
       <c r="N388" s="21"/>
       <c r="Q388" s="21"/>
     </row>
-    <row r="389" spans="10:17" ht="13">
+    <row r="389" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J389" s="21"/>
       <c r="N389" s="21"/>
       <c r="Q389" s="21"/>
     </row>
-    <row r="390" spans="10:17" ht="13">
+    <row r="390" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J390" s="21"/>
       <c r="N390" s="21"/>
       <c r="Q390" s="21"/>
     </row>
-    <row r="391" spans="10:17" ht="13">
+    <row r="391" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J391" s="21"/>
       <c r="N391" s="21"/>
       <c r="Q391" s="21"/>
     </row>
-    <row r="392" spans="10:17" ht="13">
+    <row r="392" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J392" s="21"/>
       <c r="N392" s="21"/>
       <c r="Q392" s="21"/>
     </row>
-    <row r="393" spans="10:17" ht="13">
+    <row r="393" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J393" s="21"/>
       <c r="N393" s="21"/>
       <c r="Q393" s="21"/>
     </row>
-    <row r="394" spans="10:17" ht="13">
+    <row r="394" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J394" s="21"/>
       <c r="N394" s="21"/>
       <c r="Q394" s="21"/>
     </row>
-    <row r="395" spans="10:17" ht="13">
+    <row r="395" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J395" s="21"/>
       <c r="N395" s="21"/>
       <c r="Q395" s="21"/>
     </row>
-    <row r="396" spans="10:17" ht="13">
+    <row r="396" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J396" s="21"/>
       <c r="N396" s="21"/>
       <c r="Q396" s="21"/>
     </row>
-    <row r="397" spans="10:17" ht="13">
+    <row r="397" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J397" s="21"/>
       <c r="N397" s="21"/>
       <c r="Q397" s="21"/>
     </row>
-    <row r="398" spans="10:17" ht="13">
+    <row r="398" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J398" s="21"/>
       <c r="N398" s="21"/>
       <c r="Q398" s="21"/>
     </row>
-    <row r="399" spans="10:17" ht="13">
+    <row r="399" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J399" s="21"/>
       <c r="N399" s="21"/>
       <c r="Q399" s="21"/>
     </row>
-    <row r="400" spans="10:17" ht="13">
+    <row r="400" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J400" s="21"/>
       <c r="N400" s="21"/>
       <c r="Q400" s="21"/>
     </row>
-    <row r="401" spans="10:17" ht="13">
+    <row r="401" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J401" s="21"/>
       <c r="N401" s="21"/>
       <c r="Q401" s="21"/>
     </row>
-    <row r="402" spans="10:17" ht="13">
+    <row r="402" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J402" s="21"/>
       <c r="N402" s="21"/>
       <c r="Q402" s="21"/>
     </row>
-    <row r="403" spans="10:17" ht="13">
+    <row r="403" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J403" s="21"/>
       <c r="N403" s="21"/>
       <c r="Q403" s="21"/>
     </row>
-    <row r="404" spans="10:17" ht="13">
+    <row r="404" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J404" s="21"/>
       <c r="N404" s="21"/>
       <c r="Q404" s="21"/>
     </row>
-    <row r="405" spans="10:17" ht="13">
+    <row r="405" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J405" s="21"/>
       <c r="N405" s="21"/>
       <c r="Q405" s="21"/>
     </row>
-    <row r="406" spans="10:17" ht="13">
+    <row r="406" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J406" s="21"/>
       <c r="N406" s="21"/>
       <c r="Q406" s="21"/>
     </row>
-    <row r="407" spans="10:17" ht="13">
+    <row r="407" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J407" s="21"/>
       <c r="N407" s="21"/>
       <c r="Q407" s="21"/>
     </row>
-    <row r="408" spans="10:17" ht="13">
+    <row r="408" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J408" s="21"/>
       <c r="N408" s="21"/>
       <c r="Q408" s="21"/>
     </row>
-    <row r="409" spans="10:17" ht="13">
+    <row r="409" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J409" s="21"/>
       <c r="N409" s="21"/>
       <c r="Q409" s="21"/>
     </row>
-    <row r="410" spans="10:17" ht="13">
+    <row r="410" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J410" s="21"/>
       <c r="N410" s="21"/>
       <c r="Q410" s="21"/>
     </row>
-    <row r="411" spans="10:17" ht="13">
+    <row r="411" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J411" s="21"/>
       <c r="N411" s="21"/>
       <c r="Q411" s="21"/>
     </row>
-    <row r="412" spans="10:17" ht="13">
+    <row r="412" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J412" s="21"/>
       <c r="N412" s="21"/>
       <c r="Q412" s="21"/>
     </row>
-    <row r="413" spans="10:17" ht="13">
+    <row r="413" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J413" s="21"/>
       <c r="N413" s="21"/>
       <c r="Q413" s="21"/>
     </row>
-    <row r="414" spans="10:17" ht="13">
+    <row r="414" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J414" s="21"/>
       <c r="N414" s="21"/>
       <c r="Q414" s="21"/>
     </row>
-    <row r="415" spans="10:17" ht="13">
+    <row r="415" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J415" s="21"/>
       <c r="N415" s="21"/>
       <c r="Q415" s="21"/>
     </row>
-    <row r="416" spans="10:17" ht="13">
+    <row r="416" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J416" s="21"/>
       <c r="N416" s="21"/>
       <c r="Q416" s="21"/>
     </row>
-    <row r="417" spans="10:17" ht="13">
+    <row r="417" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J417" s="21"/>
       <c r="N417" s="21"/>
       <c r="Q417" s="21"/>
     </row>
-    <row r="418" spans="10:17" ht="13">
+    <row r="418" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J418" s="21"/>
       <c r="N418" s="21"/>
       <c r="Q418" s="21"/>
     </row>
-    <row r="419" spans="10:17" ht="13">
+    <row r="419" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J419" s="21"/>
       <c r="N419" s="21"/>
       <c r="Q419" s="21"/>
     </row>
-    <row r="420" spans="10:17" ht="13">
+    <row r="420" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J420" s="21"/>
       <c r="N420" s="21"/>
       <c r="Q420" s="21"/>
     </row>
-    <row r="421" spans="10:17" ht="13">
+    <row r="421" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J421" s="21"/>
       <c r="N421" s="21"/>
       <c r="Q421" s="21"/>
     </row>
-    <row r="422" spans="10:17" ht="13">
+    <row r="422" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J422" s="21"/>
       <c r="N422" s="21"/>
       <c r="Q422" s="21"/>
     </row>
-    <row r="423" spans="10:17" ht="13">
+    <row r="423" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J423" s="21"/>
       <c r="N423" s="21"/>
       <c r="Q423" s="21"/>
     </row>
-    <row r="424" spans="10:17" ht="13">
+    <row r="424" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J424" s="21"/>
       <c r="N424" s="21"/>
       <c r="Q424" s="21"/>
     </row>
-    <row r="425" spans="10:17" ht="13">
+    <row r="425" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J425" s="21"/>
       <c r="N425" s="21"/>
       <c r="Q425" s="21"/>
     </row>
-    <row r="426" spans="10:17" ht="13">
+    <row r="426" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J426" s="21"/>
       <c r="N426" s="21"/>
       <c r="Q426" s="21"/>
     </row>
-    <row r="427" spans="10:17" ht="13">
+    <row r="427" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J427" s="21"/>
       <c r="N427" s="21"/>
       <c r="Q427" s="21"/>
     </row>
-    <row r="428" spans="10:17" ht="13">
+    <row r="428" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J428" s="21"/>
       <c r="N428" s="21"/>
       <c r="Q428" s="21"/>
     </row>
-    <row r="429" spans="10:17" ht="13">
+    <row r="429" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J429" s="21"/>
       <c r="N429" s="21"/>
       <c r="Q429" s="21"/>
     </row>
-    <row r="430" spans="10:17" ht="13">
+    <row r="430" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J430" s="21"/>
       <c r="N430" s="21"/>
       <c r="Q430" s="21"/>
     </row>
-    <row r="431" spans="10:17" ht="13">
+    <row r="431" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J431" s="21"/>
       <c r="N431" s="21"/>
       <c r="Q431" s="21"/>
     </row>
-    <row r="432" spans="10:17" ht="13">
+    <row r="432" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J432" s="21"/>
       <c r="N432" s="21"/>
       <c r="Q432" s="21"/>
     </row>
-    <row r="433" spans="10:17" ht="13">
+    <row r="433" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J433" s="21"/>
       <c r="N433" s="21"/>
       <c r="Q433" s="21"/>
     </row>
-    <row r="434" spans="10:17" ht="13">
+    <row r="434" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J434" s="21"/>
       <c r="N434" s="21"/>
       <c r="Q434" s="21"/>
     </row>
-    <row r="435" spans="10:17" ht="13">
+    <row r="435" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J435" s="21"/>
       <c r="N435" s="21"/>
       <c r="Q435" s="21"/>
     </row>
-    <row r="436" spans="10:17" ht="13">
+    <row r="436" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J436" s="21"/>
       <c r="N436" s="21"/>
       <c r="Q436" s="21"/>
     </row>
-    <row r="437" spans="10:17" ht="13">
+    <row r="437" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J437" s="21"/>
       <c r="N437" s="21"/>
       <c r="Q437" s="21"/>
     </row>
-    <row r="438" spans="10:17" ht="13">
+    <row r="438" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J438" s="21"/>
       <c r="N438" s="21"/>
       <c r="Q438" s="21"/>
     </row>
-    <row r="439" spans="10:17" ht="13">
+    <row r="439" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J439" s="21"/>
       <c r="N439" s="21"/>
       <c r="Q439" s="21"/>
     </row>
-    <row r="440" spans="10:17" ht="13">
+    <row r="440" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J440" s="21"/>
       <c r="N440" s="21"/>
       <c r="Q440" s="21"/>
     </row>
-    <row r="441" spans="10:17" ht="13">
+    <row r="441" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J441" s="21"/>
       <c r="N441" s="21"/>
       <c r="Q441" s="21"/>
     </row>
-    <row r="442" spans="10:17" ht="13">
+    <row r="442" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J442" s="21"/>
       <c r="N442" s="21"/>
       <c r="Q442" s="21"/>
     </row>
-    <row r="443" spans="10:17" ht="13">
+    <row r="443" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J443" s="21"/>
       <c r="N443" s="21"/>
       <c r="Q443" s="21"/>
     </row>
-    <row r="444" spans="10:17" ht="13">
+    <row r="444" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J444" s="21"/>
       <c r="N444" s="21"/>
       <c r="Q444" s="21"/>
     </row>
-    <row r="445" spans="10:17" ht="13">
+    <row r="445" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J445" s="21"/>
       <c r="N445" s="21"/>
       <c r="Q445" s="21"/>
     </row>
-    <row r="446" spans="10:17" ht="13">
+    <row r="446" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J446" s="21"/>
       <c r="N446" s="21"/>
       <c r="Q446" s="21"/>
     </row>
-    <row r="447" spans="10:17" ht="13">
+    <row r="447" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J447" s="21"/>
       <c r="N447" s="21"/>
       <c r="Q447" s="21"/>
     </row>
-    <row r="448" spans="10:17" ht="13">
+    <row r="448" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J448" s="21"/>
       <c r="N448" s="21"/>
       <c r="Q448" s="21"/>
     </row>
-    <row r="449" spans="10:17" ht="13">
+    <row r="449" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J449" s="21"/>
       <c r="N449" s="21"/>
       <c r="Q449" s="21"/>
     </row>
-    <row r="450" spans="10:17" ht="13">
+    <row r="450" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J450" s="21"/>
       <c r="N450" s="21"/>
       <c r="Q450" s="21"/>
     </row>
-    <row r="451" spans="10:17" ht="13">
+    <row r="451" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J451" s="21"/>
       <c r="N451" s="21"/>
       <c r="Q451" s="21"/>
     </row>
-    <row r="452" spans="10:17" ht="13">
+    <row r="452" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J452" s="21"/>
       <c r="N452" s="21"/>
       <c r="Q452" s="21"/>
     </row>
-    <row r="453" spans="10:17" ht="13">
+    <row r="453" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J453" s="21"/>
       <c r="N453" s="21"/>
       <c r="Q453" s="21"/>
     </row>
-    <row r="454" spans="10:17" ht="13">
+    <row r="454" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J454" s="21"/>
       <c r="N454" s="21"/>
       <c r="Q454" s="21"/>
     </row>
-    <row r="455" spans="10:17" ht="13">
+    <row r="455" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J455" s="21"/>
       <c r="N455" s="21"/>
       <c r="Q455" s="21"/>
     </row>
-    <row r="456" spans="10:17" ht="13">
+    <row r="456" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J456" s="21"/>
       <c r="N456" s="21"/>
       <c r="Q456" s="21"/>
     </row>
-    <row r="457" spans="10:17" ht="13">
+    <row r="457" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J457" s="21"/>
       <c r="N457" s="21"/>
       <c r="Q457" s="21"/>
     </row>
-    <row r="458" spans="10:17" ht="13">
+    <row r="458" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J458" s="21"/>
       <c r="N458" s="21"/>
       <c r="Q458" s="21"/>
     </row>
-    <row r="459" spans="10:17" ht="13">
+    <row r="459" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J459" s="21"/>
       <c r="N459" s="21"/>
       <c r="Q459" s="21"/>
     </row>
-    <row r="460" spans="10:17" ht="13">
+    <row r="460" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J460" s="21"/>
       <c r="N460" s="21"/>
       <c r="Q460" s="21"/>
     </row>
-    <row r="461" spans="10:17" ht="13">
+    <row r="461" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J461" s="21"/>
       <c r="N461" s="21"/>
       <c r="Q461" s="21"/>
     </row>
-    <row r="462" spans="10:17" ht="13">
+    <row r="462" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J462" s="21"/>
       <c r="N462" s="21"/>
       <c r="Q462" s="21"/>
     </row>
-    <row r="463" spans="10:17" ht="13">
+    <row r="463" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J463" s="21"/>
       <c r="N463" s="21"/>
       <c r="Q463" s="21"/>
     </row>
-    <row r="464" spans="10:17" ht="13">
+    <row r="464" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J464" s="21"/>
       <c r="N464" s="21"/>
       <c r="Q464" s="21"/>
     </row>
-    <row r="465" spans="10:17" ht="13">
+    <row r="465" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J465" s="21"/>
       <c r="N465" s="21"/>
       <c r="Q465" s="21"/>
     </row>
-    <row r="466" spans="10:17" ht="13">
+    <row r="466" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J466" s="21"/>
       <c r="N466" s="21"/>
       <c r="Q466" s="21"/>
     </row>
-    <row r="467" spans="10:17" ht="13">
+    <row r="467" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J467" s="21"/>
       <c r="N467" s="21"/>
       <c r="Q467" s="21"/>
     </row>
-    <row r="468" spans="10:17" ht="13">
+    <row r="468" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J468" s="21"/>
       <c r="N468" s="21"/>
       <c r="Q468" s="21"/>
     </row>
-    <row r="469" spans="10:17" ht="13">
+    <row r="469" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J469" s="21"/>
       <c r="N469" s="21"/>
       <c r="Q469" s="21"/>
     </row>
-    <row r="470" spans="10:17" ht="13">
+    <row r="470" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J470" s="21"/>
       <c r="N470" s="21"/>
       <c r="Q470" s="21"/>
     </row>
-    <row r="471" spans="10:17" ht="13">
+    <row r="471" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J471" s="21"/>
       <c r="N471" s="21"/>
       <c r="Q471" s="21"/>
     </row>
-    <row r="472" spans="10:17" ht="13">
+    <row r="472" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J472" s="21"/>
       <c r="N472" s="21"/>
       <c r="Q472" s="21"/>
     </row>
-    <row r="473" spans="10:17" ht="13">
+    <row r="473" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J473" s="21"/>
       <c r="N473" s="21"/>
       <c r="Q473" s="21"/>
     </row>
-    <row r="474" spans="10:17" ht="13">
+    <row r="474" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J474" s="21"/>
       <c r="N474" s="21"/>
       <c r="Q474" s="21"/>
     </row>
-    <row r="475" spans="10:17" ht="13">
+    <row r="475" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J475" s="21"/>
       <c r="N475" s="21"/>
       <c r="Q475" s="21"/>
     </row>
-    <row r="476" spans="10:17" ht="13">
+    <row r="476" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J476" s="21"/>
       <c r="N476" s="21"/>
       <c r="Q476" s="21"/>
     </row>
-    <row r="477" spans="10:17" ht="13">
+    <row r="477" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J477" s="21"/>
       <c r="N477" s="21"/>
       <c r="Q477" s="21"/>
     </row>
-    <row r="478" spans="10:17" ht="13">
+    <row r="478" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J478" s="21"/>
       <c r="N478" s="21"/>
       <c r="Q478" s="21"/>
     </row>
-    <row r="479" spans="10:17" ht="13">
+    <row r="479" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J479" s="21"/>
       <c r="N479" s="21"/>
       <c r="Q479" s="21"/>
     </row>
-    <row r="480" spans="10:17" ht="13">
+    <row r="480" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J480" s="21"/>
       <c r="N480" s="21"/>
       <c r="Q480" s="21"/>
     </row>
-    <row r="481" spans="10:17" ht="13">
+    <row r="481" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J481" s="21"/>
       <c r="N481" s="21"/>
       <c r="Q481" s="21"/>
     </row>
-    <row r="482" spans="10:17" ht="13">
+    <row r="482" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J482" s="21"/>
       <c r="N482" s="21"/>
       <c r="Q482" s="21"/>
     </row>
-    <row r="483" spans="10:17" ht="13">
+    <row r="483" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J483" s="21"/>
       <c r="N483" s="21"/>
       <c r="Q483" s="21"/>
     </row>
-    <row r="484" spans="10:17" ht="13">
+    <row r="484" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J484" s="21"/>
       <c r="N484" s="21"/>
       <c r="Q484" s="21"/>
     </row>
-    <row r="485" spans="10:17" ht="13">
+    <row r="485" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J485" s="21"/>
       <c r="N485" s="21"/>
       <c r="Q485" s="21"/>
     </row>
-    <row r="486" spans="10:17" ht="13">
+    <row r="486" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J486" s="21"/>
       <c r="N486" s="21"/>
       <c r="Q486" s="21"/>
     </row>
-    <row r="487" spans="10:17" ht="13">
+    <row r="487" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J487" s="21"/>
       <c r="N487" s="21"/>
       <c r="Q487" s="21"/>
     </row>
-    <row r="488" spans="10:17" ht="13">
+    <row r="488" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J488" s="21"/>
       <c r="N488" s="21"/>
       <c r="Q488" s="21"/>
     </row>
-    <row r="489" spans="10:17" ht="13">
+    <row r="489" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J489" s="21"/>
       <c r="N489" s="21"/>
       <c r="Q489" s="21"/>
     </row>
-    <row r="490" spans="10:17" ht="13">
+    <row r="490" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J490" s="21"/>
       <c r="N490" s="21"/>
       <c r="Q490" s="21"/>
     </row>
-    <row r="491" spans="10:17" ht="13">
+    <row r="491" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J491" s="21"/>
       <c r="N491" s="21"/>
       <c r="Q491" s="21"/>
     </row>
-    <row r="492" spans="10:17" ht="13">
+    <row r="492" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J492" s="21"/>
       <c r="N492" s="21"/>
       <c r="Q492" s="21"/>
     </row>
-    <row r="493" spans="10:17" ht="13">
+    <row r="493" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J493" s="21"/>
       <c r="N493" s="21"/>
       <c r="Q493" s="21"/>
     </row>
-    <row r="494" spans="10:17" ht="13">
+    <row r="494" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J494" s="21"/>
       <c r="N494" s="21"/>
       <c r="Q494" s="21"/>
     </row>
-    <row r="495" spans="10:17" ht="13">
+    <row r="495" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J495" s="21"/>
       <c r="N495" s="21"/>
       <c r="Q495" s="21"/>
     </row>
-    <row r="496" spans="10:17" ht="13">
+    <row r="496" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J496" s="21"/>
       <c r="N496" s="21"/>
       <c r="Q496" s="21"/>
     </row>
-    <row r="497" spans="10:17" ht="13">
+    <row r="497" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J497" s="21"/>
       <c r="N497" s="21"/>
       <c r="Q497" s="21"/>
     </row>
-    <row r="498" spans="10:17" ht="13">
+    <row r="498" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J498" s="21"/>
       <c r="N498" s="21"/>
       <c r="Q498" s="21"/>
     </row>
-    <row r="499" spans="10:17" ht="13">
+    <row r="499" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J499" s="21"/>
       <c r="N499" s="21"/>
       <c r="Q499" s="21"/>
     </row>
-    <row r="500" spans="10:17" ht="13">
+    <row r="500" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J500" s="21"/>
       <c r="N500" s="21"/>
       <c r="Q500" s="21"/>
     </row>
-    <row r="501" spans="10:17" ht="13">
+    <row r="501" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J501" s="21"/>
       <c r="N501" s="21"/>
       <c r="Q501" s="21"/>
     </row>
-    <row r="502" spans="10:17" ht="13">
+    <row r="502" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J502" s="21"/>
       <c r="N502" s="21"/>
       <c r="Q502" s="21"/>
     </row>
-    <row r="503" spans="10:17" ht="13">
+    <row r="503" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J503" s="21"/>
       <c r="N503" s="21"/>
       <c r="Q503" s="21"/>
     </row>
-    <row r="504" spans="10:17" ht="13">
+    <row r="504" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J504" s="21"/>
       <c r="N504" s="21"/>
       <c r="Q504" s="21"/>
     </row>
-    <row r="505" spans="10:17" ht="13">
+    <row r="505" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J505" s="21"/>
       <c r="N505" s="21"/>
       <c r="Q505" s="21"/>
     </row>
-    <row r="506" spans="10:17" ht="13">
+    <row r="506" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J506" s="21"/>
       <c r="N506" s="21"/>
       <c r="Q506" s="21"/>
     </row>
-    <row r="507" spans="10:17" ht="13">
+    <row r="507" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J507" s="21"/>
       <c r="N507" s="21"/>
       <c r="Q507" s="21"/>
     </row>
-    <row r="508" spans="10:17" ht="13">
+    <row r="508" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J508" s="21"/>
       <c r="N508" s="21"/>
       <c r="Q508" s="21"/>
     </row>
-    <row r="509" spans="10:17" ht="13">
+    <row r="509" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J509" s="21"/>
       <c r="N509" s="21"/>
       <c r="Q509" s="21"/>
     </row>
-    <row r="510" spans="10:17" ht="13">
+    <row r="510" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J510" s="21"/>
       <c r="N510" s="21"/>
       <c r="Q510" s="21"/>
     </row>
-    <row r="511" spans="10:17" ht="13">
+    <row r="511" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J511" s="21"/>
       <c r="N511" s="21"/>
       <c r="Q511" s="21"/>
     </row>
-    <row r="512" spans="10:17" ht="13">
+    <row r="512" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J512" s="21"/>
       <c r="N512" s="21"/>
       <c r="Q512" s="21"/>
     </row>
-    <row r="513" spans="10:17" ht="13">
+    <row r="513" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J513" s="21"/>
       <c r="N513" s="21"/>
       <c r="Q513" s="21"/>
     </row>
-    <row r="514" spans="10:17" ht="13">
+    <row r="514" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J514" s="21"/>
       <c r="N514" s="21"/>
       <c r="Q514" s="21"/>
     </row>
-    <row r="515" spans="10:17" ht="13">
+    <row r="515" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J515" s="21"/>
       <c r="N515" s="21"/>
       <c r="Q515" s="21"/>
     </row>
-    <row r="516" spans="10:17" ht="13">
+    <row r="516" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J516" s="21"/>
       <c r="N516" s="21"/>
       <c r="Q516" s="21"/>
     </row>
-    <row r="517" spans="10:17" ht="13">
+    <row r="517" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J517" s="21"/>
       <c r="N517" s="21"/>
       <c r="Q517" s="21"/>
     </row>
-    <row r="518" spans="10:17" ht="13">
+    <row r="518" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J518" s="21"/>
       <c r="N518" s="21"/>
       <c r="Q518" s="21"/>
     </row>
-    <row r="519" spans="10:17" ht="13">
+    <row r="519" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J519" s="21"/>
       <c r="N519" s="21"/>
       <c r="Q519" s="21"/>
     </row>
-    <row r="520" spans="10:17" ht="13">
+    <row r="520" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J520" s="21"/>
       <c r="N520" s="21"/>
       <c r="Q520" s="21"/>
     </row>
-    <row r="521" spans="10:17" ht="13">
+    <row r="521" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J521" s="21"/>
       <c r="N521" s="21"/>
       <c r="Q521" s="21"/>
     </row>
-    <row r="522" spans="10:17" ht="13">
+    <row r="522" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J522" s="21"/>
       <c r="N522" s="21"/>
       <c r="Q522" s="21"/>
     </row>
-    <row r="523" spans="10:17" ht="13">
+    <row r="523" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J523" s="21"/>
       <c r="N523" s="21"/>
       <c r="Q523" s="21"/>
     </row>
-    <row r="524" spans="10:17" ht="13">
+    <row r="524" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J524" s="21"/>
       <c r="N524" s="21"/>
       <c r="Q524" s="21"/>
     </row>
-    <row r="525" spans="10:17" ht="13">
+    <row r="525" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J525" s="21"/>
       <c r="N525" s="21"/>
       <c r="Q525" s="21"/>
     </row>
-    <row r="526" spans="10:17" ht="13">
+    <row r="526" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J526" s="21"/>
       <c r="N526" s="21"/>
       <c r="Q526" s="21"/>
     </row>
-    <row r="527" spans="10:17" ht="13">
+    <row r="527" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J527" s="21"/>
       <c r="N527" s="21"/>
       <c r="Q527" s="21"/>
     </row>
-    <row r="528" spans="10:17" ht="13">
+    <row r="528" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J528" s="21"/>
       <c r="N528" s="21"/>
       <c r="Q528" s="21"/>
     </row>
-    <row r="529" spans="10:17" ht="13">
+    <row r="529" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J529" s="21"/>
       <c r="N529" s="21"/>
       <c r="Q529" s="21"/>
     </row>
-    <row r="530" spans="10:17" ht="13">
+    <row r="530" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J530" s="21"/>
       <c r="N530" s="21"/>
       <c r="Q530" s="21"/>
     </row>
-    <row r="531" spans="10:17" ht="13">
+    <row r="531" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J531" s="21"/>
       <c r="N531" s="21"/>
       <c r="Q531" s="21"/>
     </row>
-    <row r="532" spans="10:17" ht="13">
+    <row r="532" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J532" s="21"/>
       <c r="N532" s="21"/>
       <c r="Q532" s="21"/>
     </row>
-    <row r="533" spans="10:17" ht="13">
+    <row r="533" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J533" s="21"/>
       <c r="N533" s="21"/>
       <c r="Q533" s="21"/>
     </row>
-    <row r="534" spans="10:17" ht="13">
+    <row r="534" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J534" s="21"/>
       <c r="N534" s="21"/>
       <c r="Q534" s="21"/>
     </row>
-    <row r="535" spans="10:17" ht="13">
+    <row r="535" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J535" s="21"/>
       <c r="N535" s="21"/>
       <c r="Q535" s="21"/>
     </row>
-    <row r="536" spans="10:17" ht="13">
+    <row r="536" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J536" s="21"/>
       <c r="N536" s="21"/>
       <c r="Q536" s="21"/>
     </row>
-    <row r="537" spans="10:17" ht="13">
+    <row r="537" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J537" s="21"/>
       <c r="N537" s="21"/>
       <c r="Q537" s="21"/>
     </row>
-    <row r="538" spans="10:17" ht="13">
+    <row r="538" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J538" s="21"/>
       <c r="N538" s="21"/>
       <c r="Q538" s="21"/>
     </row>
-    <row r="539" spans="10:17" ht="13">
+    <row r="539" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J539" s="21"/>
       <c r="N539" s="21"/>
       <c r="Q539" s="21"/>
     </row>
-    <row r="540" spans="10:17" ht="13">
+    <row r="540" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J540" s="21"/>
       <c r="N540" s="21"/>
       <c r="Q540" s="21"/>
     </row>
-    <row r="541" spans="10:17" ht="13">
+    <row r="541" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J541" s="21"/>
       <c r="N541" s="21"/>
       <c r="Q541" s="21"/>
     </row>
-    <row r="542" spans="10:17" ht="13">
+    <row r="542" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J542" s="21"/>
       <c r="N542" s="21"/>
       <c r="Q542" s="21"/>
     </row>
-    <row r="543" spans="10:17" ht="13">
+    <row r="543" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J543" s="21"/>
       <c r="N543" s="21"/>
       <c r="Q543" s="21"/>
     </row>
-    <row r="544" spans="10:17" ht="13">
+    <row r="544" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J544" s="21"/>
       <c r="N544" s="21"/>
       <c r="Q544" s="21"/>
     </row>
-    <row r="545" spans="10:17" ht="13">
+    <row r="545" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J545" s="21"/>
       <c r="N545" s="21"/>
       <c r="Q545" s="21"/>
     </row>
-    <row r="546" spans="10:17" ht="13">
+    <row r="546" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J546" s="21"/>
       <c r="N546" s="21"/>
       <c r="Q546" s="21"/>
     </row>
-    <row r="547" spans="10:17" ht="13">
+    <row r="547" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J547" s="21"/>
       <c r="N547" s="21"/>
       <c r="Q547" s="21"/>
     </row>
-    <row r="548" spans="10:17" ht="13">
+    <row r="548" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J548" s="21"/>
       <c r="N548" s="21"/>
       <c r="Q548" s="21"/>
     </row>
-    <row r="549" spans="10:17" ht="13">
+    <row r="549" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J549" s="21"/>
       <c r="N549" s="21"/>
       <c r="Q549" s="21"/>
     </row>
-    <row r="550" spans="10:17" ht="13">
+    <row r="550" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J550" s="21"/>
       <c r="N550" s="21"/>
       <c r="Q550" s="21"/>
     </row>
-    <row r="551" spans="10:17" ht="13">
+    <row r="551" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J551" s="21"/>
       <c r="N551" s="21"/>
       <c r="Q551" s="21"/>
     </row>
-    <row r="552" spans="10:17" ht="13">
+    <row r="552" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J552" s="21"/>
       <c r="N552" s="21"/>
       <c r="Q552" s="21"/>
     </row>
-    <row r="553" spans="10:17" ht="13">
+    <row r="553" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J553" s="21"/>
       <c r="N553" s="21"/>
       <c r="Q553" s="21"/>
     </row>
-    <row r="554" spans="10:17" ht="13">
+    <row r="554" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J554" s="21"/>
       <c r="N554" s="21"/>
       <c r="Q554" s="21"/>
     </row>
-    <row r="555" spans="10:17" ht="13">
+    <row r="555" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J555" s="21"/>
       <c r="N555" s="21"/>
       <c r="Q555" s="21"/>
     </row>
-    <row r="556" spans="10:17" ht="13">
+    <row r="556" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J556" s="21"/>
       <c r="N556" s="21"/>
       <c r="Q556" s="21"/>
     </row>
-    <row r="557" spans="10:17" ht="13">
+    <row r="557" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J557" s="21"/>
       <c r="N557" s="21"/>
       <c r="Q557" s="21"/>
     </row>
-    <row r="558" spans="10:17" ht="13">
+    <row r="558" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J558" s="21"/>
       <c r="N558" s="21"/>
       <c r="Q558" s="21"/>
     </row>
-    <row r="559" spans="10:17" ht="13">
+    <row r="559" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J559" s="21"/>
       <c r="N559" s="21"/>
       <c r="Q559" s="21"/>
     </row>
-    <row r="560" spans="10:17" ht="13">
+    <row r="560" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J560" s="21"/>
       <c r="N560" s="21"/>
       <c r="Q560" s="21"/>
     </row>
-    <row r="561" spans="10:17" ht="13">
+    <row r="561" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J561" s="21"/>
       <c r="N561" s="21"/>
       <c r="Q561" s="21"/>
     </row>
-    <row r="562" spans="10:17" ht="13">
+    <row r="562" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J562" s="21"/>
       <c r="N562" s="21"/>
       <c r="Q562" s="21"/>
     </row>
-    <row r="563" spans="10:17" ht="13">
+    <row r="563" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J563" s="21"/>
       <c r="N563" s="21"/>
       <c r="Q563" s="21"/>
     </row>
-    <row r="564" spans="10:17" ht="13">
+    <row r="564" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J564" s="21"/>
       <c r="N564" s="21"/>
       <c r="Q564" s="21"/>
     </row>
-    <row r="565" spans="10:17" ht="13">
+    <row r="565" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J565" s="21"/>
       <c r="N565" s="21"/>
       <c r="Q565" s="21"/>
     </row>
-    <row r="566" spans="10:17" ht="13">
+    <row r="566" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J566" s="21"/>
       <c r="N566" s="21"/>
       <c r="Q566" s="21"/>
     </row>
-    <row r="567" spans="10:17" ht="13">
+    <row r="567" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J567" s="21"/>
       <c r="N567" s="21"/>
       <c r="Q567" s="21"/>
     </row>
-    <row r="568" spans="10:17" ht="13">
+    <row r="568" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J568" s="21"/>
       <c r="N568" s="21"/>
       <c r="Q568" s="21"/>
     </row>
-    <row r="569" spans="10:17" ht="13">
+    <row r="569" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J569" s="21"/>
       <c r="N569" s="21"/>
       <c r="Q569" s="21"/>
     </row>
-    <row r="570" spans="10:17" ht="13">
+    <row r="570" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J570" s="21"/>
       <c r="N570" s="21"/>
       <c r="Q570" s="21"/>
     </row>
-    <row r="571" spans="10:17" ht="13">
+    <row r="571" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J571" s="21"/>
       <c r="N571" s="21"/>
       <c r="Q571" s="21"/>
     </row>
-    <row r="572" spans="10:17" ht="13">
+    <row r="572" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J572" s="21"/>
       <c r="N572" s="21"/>
       <c r="Q572" s="21"/>
     </row>
-    <row r="573" spans="10:17" ht="13">
+    <row r="573" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J573" s="21"/>
       <c r="N573" s="21"/>
       <c r="Q573" s="21"/>
     </row>
-    <row r="574" spans="10:17" ht="13">
+    <row r="574" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J574" s="21"/>
       <c r="N574" s="21"/>
       <c r="Q574" s="21"/>
     </row>
-    <row r="575" spans="10:17" ht="13">
+    <row r="575" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J575" s="21"/>
       <c r="N575" s="21"/>
       <c r="Q575" s="21"/>
     </row>
-    <row r="576" spans="10:17" ht="13">
+    <row r="576" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J576" s="21"/>
       <c r="N576" s="21"/>
       <c r="Q576" s="21"/>
     </row>
-    <row r="577" spans="10:17" ht="13">
+    <row r="577" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J577" s="21"/>
       <c r="N577" s="21"/>
       <c r="Q577" s="21"/>
     </row>
-    <row r="578" spans="10:17" ht="13">
+    <row r="578" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J578" s="21"/>
       <c r="N578" s="21"/>
       <c r="Q578" s="21"/>
     </row>
-    <row r="579" spans="10:17" ht="13">
+    <row r="579" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J579" s="21"/>
       <c r="N579" s="21"/>
       <c r="Q579" s="21"/>
     </row>
-    <row r="580" spans="10:17" ht="13">
+    <row r="580" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J580" s="21"/>
       <c r="N580" s="21"/>
       <c r="Q580" s="21"/>
     </row>
-    <row r="581" spans="10:17" ht="13">
+    <row r="581" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J581" s="21"/>
       <c r="N581" s="21"/>
       <c r="Q581" s="21"/>
     </row>
-    <row r="582" spans="10:17" ht="13">
+    <row r="582" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J582" s="21"/>
       <c r="N582" s="21"/>
       <c r="Q582" s="21"/>
     </row>
-    <row r="583" spans="10:17" ht="13">
+    <row r="583" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J583" s="21"/>
       <c r="N583" s="21"/>
       <c r="Q583" s="21"/>
     </row>
-    <row r="584" spans="10:17" ht="13">
+    <row r="584" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J584" s="21"/>
       <c r="N584" s="21"/>
       <c r="Q584" s="21"/>
     </row>
-    <row r="585" spans="10:17" ht="13">
+    <row r="585" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J585" s="21"/>
       <c r="N585" s="21"/>
       <c r="Q585" s="21"/>
     </row>
-    <row r="586" spans="10:17" ht="13">
+    <row r="586" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J586" s="21"/>
       <c r="N586" s="21"/>
       <c r="Q586" s="21"/>
     </row>
-    <row r="587" spans="10:17" ht="13">
+    <row r="587" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J587" s="21"/>
       <c r="N587" s="21"/>
       <c r="Q587" s="21"/>
     </row>
-    <row r="588" spans="10:17" ht="13">
+    <row r="588" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J588" s="21"/>
       <c r="N588" s="21"/>
       <c r="Q588" s="21"/>
     </row>
-    <row r="589" spans="10:17" ht="13">
+    <row r="589" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J589" s="21"/>
       <c r="N589" s="21"/>
       <c r="Q589" s="21"/>
     </row>
-    <row r="590" spans="10:17" ht="13">
+    <row r="590" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J590" s="21"/>
       <c r="N590" s="21"/>
       <c r="Q590" s="21"/>
     </row>
-    <row r="591" spans="10:17" ht="13">
+    <row r="591" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J591" s="21"/>
       <c r="N591" s="21"/>
       <c r="Q591" s="21"/>
     </row>
-    <row r="592" spans="10:17" ht="13">
+    <row r="592" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J592" s="21"/>
       <c r="N592" s="21"/>
       <c r="Q592" s="21"/>
     </row>
-    <row r="593" spans="10:17" ht="13">
+    <row r="593" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J593" s="21"/>
       <c r="N593" s="21"/>
       <c r="Q593" s="21"/>
     </row>
-    <row r="594" spans="10:17" ht="13">
+    <row r="594" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J594" s="21"/>
       <c r="N594" s="21"/>
       <c r="Q594" s="21"/>
     </row>
-    <row r="595" spans="10:17" ht="13">
+    <row r="595" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J595" s="21"/>
       <c r="N595" s="21"/>
       <c r="Q595" s="21"/>
     </row>
-    <row r="596" spans="10:17" ht="13">
+    <row r="596" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J596" s="21"/>
       <c r="N596" s="21"/>
       <c r="Q596" s="21"/>
     </row>
-    <row r="597" spans="10:17" ht="13">
+    <row r="597" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J597" s="21"/>
       <c r="N597" s="21"/>
       <c r="Q597" s="21"/>
     </row>
-    <row r="598" spans="10:17" ht="13">
+    <row r="598" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J598" s="21"/>
       <c r="N598" s="21"/>
       <c r="Q598" s="21"/>
     </row>
-    <row r="599" spans="10:17" ht="13">
+    <row r="599" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J599" s="21"/>
       <c r="N599" s="21"/>
       <c r="Q599" s="21"/>
     </row>
-    <row r="600" spans="10:17" ht="13">
+    <row r="600" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J600" s="21"/>
       <c r="N600" s="21"/>
       <c r="Q600" s="21"/>
     </row>
-    <row r="601" spans="10:17" ht="13">
+    <row r="601" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J601" s="21"/>
       <c r="N601" s="21"/>
       <c r="Q601" s="21"/>
     </row>
-    <row r="602" spans="10:17" ht="13">
+    <row r="602" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J602" s="21"/>
       <c r="N602" s="21"/>
       <c r="Q602" s="21"/>
     </row>
-    <row r="603" spans="10:17" ht="13">
+    <row r="603" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J603" s="21"/>
       <c r="N603" s="21"/>
       <c r="Q603" s="21"/>
     </row>
-    <row r="604" spans="10:17" ht="13">
+    <row r="604" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J604" s="21"/>
       <c r="N604" s="21"/>
       <c r="Q604" s="21"/>
     </row>
-    <row r="605" spans="10:17" ht="13">
+    <row r="605" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J605" s="21"/>
       <c r="N605" s="21"/>
       <c r="Q605" s="21"/>
     </row>
-    <row r="606" spans="10:17" ht="13">
+    <row r="606" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J606" s="21"/>
       <c r="N606" s="21"/>
       <c r="Q606" s="21"/>
     </row>
-    <row r="607" spans="10:17" ht="13">
+    <row r="607" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J607" s="21"/>
       <c r="N607" s="21"/>
       <c r="Q607" s="21"/>
     </row>
-    <row r="608" spans="10:17" ht="13">
+    <row r="608" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J608" s="21"/>
       <c r="N608" s="21"/>
       <c r="Q608" s="21"/>
     </row>
-    <row r="609" spans="10:17" ht="13">
+    <row r="609" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J609" s="21"/>
       <c r="N609" s="21"/>
       <c r="Q609" s="21"/>
     </row>
-    <row r="610" spans="10:17" ht="13">
+    <row r="610" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J610" s="21"/>
       <c r="N610" s="21"/>
       <c r="Q610" s="21"/>
     </row>
-    <row r="611" spans="10:17" ht="13">
+    <row r="611" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J611" s="21"/>
       <c r="N611" s="21"/>
       <c r="Q611" s="21"/>
     </row>
-    <row r="612" spans="10:17" ht="13">
+    <row r="612" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J612" s="21"/>
       <c r="N612" s="21"/>
       <c r="Q612" s="21"/>
     </row>
-    <row r="613" spans="10:17" ht="13">
+    <row r="613" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J613" s="21"/>
       <c r="N613" s="21"/>
       <c r="Q613" s="21"/>
     </row>
-    <row r="614" spans="10:17" ht="13">
+    <row r="614" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J614" s="21"/>
       <c r="N614" s="21"/>
       <c r="Q614" s="21"/>
     </row>
-    <row r="615" spans="10:17" ht="13">
+    <row r="615" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J615" s="21"/>
       <c r="N615" s="21"/>
       <c r="Q615" s="21"/>
     </row>
-    <row r="616" spans="10:17" ht="13">
+    <row r="616" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J616" s="21"/>
       <c r="N616" s="21"/>
       <c r="Q616" s="21"/>
     </row>
-    <row r="617" spans="10:17" ht="13">
+    <row r="617" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J617" s="21"/>
       <c r="N617" s="21"/>
       <c r="Q617" s="21"/>
     </row>
-    <row r="618" spans="10:17" ht="13">
+    <row r="618" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J618" s="21"/>
       <c r="N618" s="21"/>
       <c r="Q618" s="21"/>
     </row>
-    <row r="619" spans="10:17" ht="13">
+    <row r="619" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J619" s="21"/>
       <c r="N619" s="21"/>
       <c r="Q619" s="21"/>
     </row>
-    <row r="620" spans="10:17" ht="13">
+    <row r="620" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J620" s="21"/>
       <c r="N620" s="21"/>
       <c r="Q620" s="21"/>
     </row>
-    <row r="621" spans="10:17" ht="13">
+    <row r="621" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J621" s="21"/>
       <c r="N621" s="21"/>
       <c r="Q621" s="21"/>
     </row>
-    <row r="622" spans="10:17" ht="13">
+    <row r="622" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J622" s="21"/>
       <c r="N622" s="21"/>
       <c r="Q622" s="21"/>
     </row>
-    <row r="623" spans="10:17" ht="13">
+    <row r="623" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J623" s="21"/>
       <c r="N623" s="21"/>
       <c r="Q623" s="21"/>
     </row>
-    <row r="624" spans="10:17" ht="13">
+    <row r="624" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J624" s="21"/>
       <c r="N624" s="21"/>
       <c r="Q624" s="21"/>
     </row>
-    <row r="625" spans="10:17" ht="13">
+    <row r="625" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J625" s="21"/>
       <c r="N625" s="21"/>
       <c r="Q625" s="21"/>
     </row>
-    <row r="626" spans="10:17" ht="13">
+    <row r="626" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J626" s="21"/>
       <c r="N626" s="21"/>
       <c r="Q626" s="21"/>
     </row>
-    <row r="627" spans="10:17" ht="13">
+    <row r="627" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J627" s="21"/>
       <c r="N627" s="21"/>
       <c r="Q627" s="21"/>
     </row>
-    <row r="628" spans="10:17" ht="13">
+    <row r="628" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J628" s="21"/>
       <c r="N628" s="21"/>
       <c r="Q628" s="21"/>
     </row>
-    <row r="629" spans="10:17" ht="13">
+    <row r="629" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J629" s="21"/>
       <c r="N629" s="21"/>
       <c r="Q629" s="21"/>
     </row>
-    <row r="630" spans="10:17" ht="13">
+    <row r="630" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J630" s="21"/>
       <c r="N630" s="21"/>
       <c r="Q630" s="21"/>
     </row>
-    <row r="631" spans="10:17" ht="13">
+    <row r="631" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J631" s="21"/>
       <c r="N631" s="21"/>
       <c r="Q631" s="21"/>
     </row>
-    <row r="632" spans="10:17" ht="13">
+    <row r="632" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J632" s="21"/>
       <c r="N632" s="21"/>
       <c r="Q632" s="21"/>
     </row>
-    <row r="633" spans="10:17" ht="13">
+    <row r="633" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J633" s="21"/>
       <c r="N633" s="21"/>
       <c r="Q633" s="21"/>
     </row>
-    <row r="634" spans="10:17" ht="13">
+    <row r="634" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J634" s="21"/>
       <c r="N634" s="21"/>
       <c r="Q634" s="21"/>
     </row>
-    <row r="635" spans="10:17" ht="13">
+    <row r="635" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J635" s="21"/>
       <c r="N635" s="21"/>
       <c r="Q635" s="21"/>
     </row>
-    <row r="636" spans="10:17" ht="13">
+    <row r="636" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J636" s="21"/>
       <c r="N636" s="21"/>
       <c r="Q636" s="21"/>
     </row>
-    <row r="637" spans="10:17" ht="13">
+    <row r="637" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J637" s="21"/>
       <c r="N637" s="21"/>
       <c r="Q637" s="21"/>
     </row>
-    <row r="638" spans="10:17" ht="13">
+    <row r="638" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J638" s="21"/>
       <c r="N638" s="21"/>
       <c r="Q638" s="21"/>
     </row>
-    <row r="639" spans="10:17" ht="13">
+    <row r="639" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J639" s="21"/>
       <c r="N639" s="21"/>
       <c r="Q639" s="21"/>
     </row>
-    <row r="640" spans="10:17" ht="13">
+    <row r="640" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J640" s="21"/>
       <c r="N640" s="21"/>
       <c r="Q640" s="21"/>
     </row>
-    <row r="641" spans="10:17" ht="13">
+    <row r="641" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J641" s="21"/>
       <c r="N641" s="21"/>
       <c r="Q641" s="21"/>
     </row>
-    <row r="642" spans="10:17" ht="13">
+    <row r="642" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J642" s="21"/>
       <c r="N642" s="21"/>
       <c r="Q642" s="21"/>
     </row>
-    <row r="643" spans="10:17" ht="13">
+    <row r="643" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J643" s="21"/>
       <c r="N643" s="21"/>
       <c r="Q643" s="21"/>
     </row>
-    <row r="644" spans="10:17" ht="13">
+    <row r="644" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J644" s="21"/>
       <c r="N644" s="21"/>
       <c r="Q644" s="21"/>
     </row>
-    <row r="645" spans="10:17" ht="13">
+    <row r="645" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J645" s="21"/>
       <c r="N645" s="21"/>
       <c r="Q645" s="21"/>
     </row>
-    <row r="646" spans="10:17" ht="13">
+    <row r="646" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J646" s="21"/>
       <c r="N646" s="21"/>
       <c r="Q646" s="21"/>
     </row>
-    <row r="647" spans="10:17" ht="13">
+    <row r="647" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J647" s="21"/>
       <c r="N647" s="21"/>
       <c r="Q647" s="21"/>
     </row>
-    <row r="648" spans="10:17" ht="13">
+    <row r="648" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J648" s="21"/>
       <c r="N648" s="21"/>
       <c r="Q648" s="21"/>
     </row>
-    <row r="649" spans="10:17" ht="13">
+    <row r="649" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J649" s="21"/>
       <c r="N649" s="21"/>
       <c r="Q649" s="21"/>
     </row>
-    <row r="650" spans="10:17" ht="13">
+    <row r="650" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J650" s="21"/>
       <c r="N650" s="21"/>
       <c r="Q650" s="21"/>
     </row>
-    <row r="651" spans="10:17" ht="13">
+    <row r="651" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J651" s="21"/>
       <c r="N651" s="21"/>
       <c r="Q651" s="21"/>
     </row>
-    <row r="652" spans="10:17" ht="13">
+    <row r="652" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J652" s="21"/>
       <c r="N652" s="21"/>
       <c r="Q652" s="21"/>
     </row>
-    <row r="653" spans="10:17" ht="13">
+    <row r="653" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J653" s="21"/>
       <c r="N653" s="21"/>
       <c r="Q653" s="21"/>
     </row>
-    <row r="654" spans="10:17" ht="13">
+    <row r="654" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J654" s="21"/>
       <c r="N654" s="21"/>
       <c r="Q654" s="21"/>
     </row>
-    <row r="655" spans="10:17" ht="13">
+    <row r="655" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J655" s="21"/>
       <c r="N655" s="21"/>
       <c r="Q655" s="21"/>
     </row>
-    <row r="656" spans="10:17" ht="13">
+    <row r="656" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J656" s="21"/>
       <c r="N656" s="21"/>
       <c r="Q656" s="21"/>
     </row>
-    <row r="657" spans="10:17" ht="13">
+    <row r="657" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J657" s="21"/>
       <c r="N657" s="21"/>
       <c r="Q657" s="21"/>
     </row>
-    <row r="658" spans="10:17" ht="13">
+    <row r="658" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J658" s="21"/>
       <c r="N658" s="21"/>
       <c r="Q658" s="21"/>
     </row>
-    <row r="659" spans="10:17" ht="13">
+    <row r="659" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J659" s="21"/>
       <c r="N659" s="21"/>
       <c r="Q659" s="21"/>
     </row>
-    <row r="660" spans="10:17" ht="13">
+    <row r="660" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J660" s="21"/>
       <c r="N660" s="21"/>
       <c r="Q660" s="21"/>
     </row>
-    <row r="661" spans="10:17" ht="13">
+    <row r="661" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J661" s="21"/>
       <c r="N661" s="21"/>
       <c r="Q661" s="21"/>
     </row>
-    <row r="662" spans="10:17" ht="13">
+    <row r="662" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J662" s="21"/>
       <c r="N662" s="21"/>
       <c r="Q662" s="21"/>
     </row>
-    <row r="663" spans="10:17" ht="13">
+    <row r="663" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J663" s="21"/>
       <c r="N663" s="21"/>
       <c r="Q663" s="21"/>
     </row>
-    <row r="664" spans="10:17" ht="13">
+    <row r="664" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J664" s="21"/>
       <c r="N664" s="21"/>
       <c r="Q664" s="21"/>
     </row>
-    <row r="665" spans="10:17" ht="13">
+    <row r="665" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J665" s="21"/>
       <c r="N665" s="21"/>
       <c r="Q665" s="21"/>
     </row>
-    <row r="666" spans="10:17" ht="13">
+    <row r="666" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J666" s="21"/>
       <c r="N666" s="21"/>
       <c r="Q666" s="21"/>
     </row>
-    <row r="667" spans="10:17" ht="13">
+    <row r="667" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J667" s="21"/>
       <c r="N667" s="21"/>
       <c r="Q667" s="21"/>
     </row>
-    <row r="668" spans="10:17" ht="13">
+    <row r="668" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J668" s="21"/>
       <c r="N668" s="21"/>
       <c r="Q668" s="21"/>
     </row>
-    <row r="669" spans="10:17" ht="13">
+    <row r="669" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J669" s="21"/>
       <c r="N669" s="21"/>
       <c r="Q669" s="21"/>
     </row>
-    <row r="670" spans="10:17" ht="13">
+    <row r="670" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J670" s="21"/>
       <c r="N670" s="21"/>
       <c r="Q670" s="21"/>
     </row>
-    <row r="671" spans="10:17" ht="13">
+    <row r="671" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J671" s="21"/>
       <c r="N671" s="21"/>
       <c r="Q671" s="21"/>
     </row>
-    <row r="672" spans="10:17" ht="13">
+    <row r="672" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J672" s="21"/>
       <c r="N672" s="21"/>
       <c r="Q672" s="21"/>
     </row>
-    <row r="673" spans="10:17" ht="13">
+    <row r="673" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J673" s="21"/>
       <c r="N673" s="21"/>
       <c r="Q673" s="21"/>
     </row>
-    <row r="674" spans="10:17" ht="13">
+    <row r="674" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J674" s="21"/>
       <c r="N674" s="21"/>
       <c r="Q674" s="21"/>
     </row>
-    <row r="675" spans="10:17" ht="13">
+    <row r="675" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J675" s="21"/>
       <c r="N675" s="21"/>
       <c r="Q675" s="21"/>
     </row>
-    <row r="676" spans="10:17" ht="13">
+    <row r="676" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J676" s="21"/>
       <c r="N676" s="21"/>
       <c r="Q676" s="21"/>
     </row>
-    <row r="677" spans="10:17" ht="13">
+    <row r="677" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J677" s="21"/>
       <c r="N677" s="21"/>
       <c r="Q677" s="21"/>
     </row>
-    <row r="678" spans="10:17" ht="13">
+    <row r="678" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J678" s="21"/>
       <c r="N678" s="21"/>
       <c r="Q678" s="21"/>
     </row>
-    <row r="679" spans="10:17" ht="13">
+    <row r="679" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J679" s="21"/>
       <c r="N679" s="21"/>
       <c r="Q679" s="21"/>
     </row>
-    <row r="680" spans="10:17" ht="13">
+    <row r="680" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J680" s="21"/>
       <c r="N680" s="21"/>
       <c r="Q680" s="21"/>
     </row>
-    <row r="681" spans="10:17" ht="13">
+    <row r="681" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J681" s="21"/>
       <c r="N681" s="21"/>
       <c r="Q681" s="21"/>
     </row>
-    <row r="682" spans="10:17" ht="13">
+    <row r="682" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J682" s="21"/>
       <c r="N682" s="21"/>
       <c r="Q682" s="21"/>
     </row>
-    <row r="683" spans="10:17" ht="13">
+    <row r="683" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J683" s="21"/>
       <c r="N683" s="21"/>
       <c r="Q683" s="21"/>
     </row>
-    <row r="684" spans="10:17" ht="13">
+    <row r="684" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J684" s="21"/>
       <c r="N684" s="21"/>
       <c r="Q684" s="21"/>
     </row>
-    <row r="685" spans="10:17" ht="13">
+    <row r="685" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J685" s="21"/>
       <c r="N685" s="21"/>
       <c r="Q685" s="21"/>
     </row>
-    <row r="686" spans="10:17" ht="13">
+    <row r="686" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J686" s="21"/>
       <c r="N686" s="21"/>
       <c r="Q686" s="21"/>
     </row>
-    <row r="687" spans="10:17" ht="13">
+    <row r="687" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J687" s="21"/>
       <c r="N687" s="21"/>
       <c r="Q687" s="21"/>
     </row>
-    <row r="688" spans="10:17" ht="13">
+    <row r="688" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J688" s="21"/>
       <c r="N688" s="21"/>
       <c r="Q688" s="21"/>
     </row>
-    <row r="689" spans="10:17" ht="13">
+    <row r="689" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J689" s="21"/>
       <c r="N689" s="21"/>
       <c r="Q689" s="21"/>
     </row>
-    <row r="690" spans="10:17" ht="13">
+    <row r="690" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J690" s="21"/>
       <c r="N690" s="21"/>
       <c r="Q690" s="21"/>
     </row>
-    <row r="691" spans="10:17" ht="13">
+    <row r="691" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J691" s="21"/>
       <c r="N691" s="21"/>
       <c r="Q691" s="21"/>
     </row>
-    <row r="692" spans="10:17" ht="13">
+    <row r="692" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J692" s="21"/>
       <c r="N692" s="21"/>
       <c r="Q692" s="21"/>
     </row>
-    <row r="693" spans="10:17" ht="13">
+    <row r="693" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J693" s="21"/>
       <c r="N693" s="21"/>
       <c r="Q693" s="21"/>
     </row>
-    <row r="694" spans="10:17" ht="13">
+    <row r="694" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J694" s="21"/>
       <c r="N694" s="21"/>
       <c r="Q694" s="21"/>
     </row>
-    <row r="695" spans="10:17" ht="13">
+    <row r="695" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J695" s="21"/>
       <c r="N695" s="21"/>
       <c r="Q695" s="21"/>
     </row>
-    <row r="696" spans="10:17" ht="13">
+    <row r="696" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J696" s="21"/>
       <c r="N696" s="21"/>
       <c r="Q696" s="21"/>
     </row>
-    <row r="697" spans="10:17" ht="13">
+    <row r="697" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J697" s="21"/>
       <c r="N697" s="21"/>
       <c r="Q697" s="21"/>
     </row>
-    <row r="698" spans="10:17" ht="13">
+    <row r="698" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J698" s="21"/>
       <c r="N698" s="21"/>
       <c r="Q698" s="21"/>
     </row>
-    <row r="699" spans="10:17" ht="13">
+    <row r="699" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J699" s="21"/>
       <c r="N699" s="21"/>
       <c r="Q699" s="21"/>
     </row>
-    <row r="700" spans="10:17" ht="13">
+    <row r="700" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J700" s="21"/>
       <c r="N700" s="21"/>
       <c r="Q700" s="21"/>
     </row>
-    <row r="701" spans="10:17" ht="13">
+    <row r="701" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J701" s="21"/>
       <c r="N701" s="21"/>
       <c r="Q701" s="21"/>
     </row>
-    <row r="702" spans="10:17" ht="13">
+    <row r="702" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J702" s="21"/>
       <c r="N702" s="21"/>
       <c r="Q702" s="21"/>
     </row>
-    <row r="703" spans="10:17" ht="13">
+    <row r="703" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J703" s="21"/>
       <c r="N703" s="21"/>
       <c r="Q703" s="21"/>
     </row>
-    <row r="704" spans="10:17" ht="13">
+    <row r="704" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J704" s="21"/>
       <c r="N704" s="21"/>
       <c r="Q704" s="21"/>
     </row>
-    <row r="705" spans="10:17" ht="13">
+    <row r="705" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J705" s="21"/>
       <c r="N705" s="21"/>
       <c r="Q705" s="21"/>
     </row>
-    <row r="706" spans="10:17" ht="13">
+    <row r="706" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J706" s="21"/>
       <c r="N706" s="21"/>
       <c r="Q706" s="21"/>
     </row>
-    <row r="707" spans="10:17" ht="13">
+    <row r="707" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J707" s="21"/>
       <c r="N707" s="21"/>
       <c r="Q707" s="21"/>
     </row>
-    <row r="708" spans="10:17" ht="13">
+    <row r="708" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J708" s="21"/>
       <c r="N708" s="21"/>
       <c r="Q708" s="21"/>
     </row>
-    <row r="709" spans="10:17" ht="13">
+    <row r="709" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J709" s="21"/>
       <c r="N709" s="21"/>
       <c r="Q709" s="21"/>
     </row>
-    <row r="710" spans="10:17" ht="13">
+    <row r="710" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J710" s="21"/>
       <c r="N710" s="21"/>
       <c r="Q710" s="21"/>
     </row>
-    <row r="711" spans="10:17" ht="13">
+    <row r="711" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J711" s="21"/>
       <c r="N711" s="21"/>
       <c r="Q711" s="21"/>
     </row>
-    <row r="712" spans="10:17" ht="13">
+    <row r="712" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J712" s="21"/>
       <c r="N712" s="21"/>
       <c r="Q712" s="21"/>
     </row>
-    <row r="713" spans="10:17" ht="13">
+    <row r="713" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J713" s="21"/>
       <c r="N713" s="21"/>
       <c r="Q713" s="21"/>
     </row>
-    <row r="714" spans="10:17" ht="13">
+    <row r="714" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J714" s="21"/>
       <c r="N714" s="21"/>
       <c r="Q714" s="21"/>
     </row>
-    <row r="715" spans="10:17" ht="13">
+    <row r="715" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J715" s="21"/>
       <c r="N715" s="21"/>
       <c r="Q715" s="21"/>
     </row>
-    <row r="716" spans="10:17" ht="13">
+    <row r="716" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J716" s="21"/>
       <c r="N716" s="21"/>
       <c r="Q716" s="21"/>
     </row>
-    <row r="717" spans="10:17" ht="13">
+    <row r="717" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J717" s="21"/>
       <c r="N717" s="21"/>
       <c r="Q717" s="21"/>
     </row>
-    <row r="718" spans="10:17" ht="13">
+    <row r="718" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J718" s="21"/>
       <c r="N718" s="21"/>
       <c r="Q718" s="21"/>
     </row>
-    <row r="719" spans="10:17" ht="13">
+    <row r="719" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J719" s="21"/>
       <c r="N719" s="21"/>
       <c r="Q719" s="21"/>
     </row>
-    <row r="720" spans="10:17" ht="13">
+    <row r="720" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J720" s="21"/>
       <c r="N720" s="21"/>
       <c r="Q720" s="21"/>
     </row>
-    <row r="721" spans="10:17" ht="13">
+    <row r="721" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J721" s="21"/>
       <c r="N721" s="21"/>
       <c r="Q721" s="21"/>
     </row>
-    <row r="722" spans="10:17" ht="13">
+    <row r="722" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J722" s="21"/>
       <c r="N722" s="21"/>
       <c r="Q722" s="21"/>
     </row>
-    <row r="723" spans="10:17" ht="13">
+    <row r="723" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J723" s="21"/>
       <c r="N723" s="21"/>
       <c r="Q723" s="21"/>
     </row>
-    <row r="724" spans="10:17" ht="13">
+    <row r="724" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J724" s="21"/>
       <c r="N724" s="21"/>
       <c r="Q724" s="21"/>
     </row>
-    <row r="725" spans="10:17" ht="13">
+    <row r="725" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J725" s="21"/>
       <c r="N725" s="21"/>
       <c r="Q725" s="21"/>
     </row>
-    <row r="726" spans="10:17" ht="13">
+    <row r="726" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J726" s="21"/>
       <c r="N726" s="21"/>
       <c r="Q726" s="21"/>
     </row>
-    <row r="727" spans="10:17" ht="13">
+    <row r="727" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J727" s="21"/>
       <c r="N727" s="21"/>
       <c r="Q727" s="21"/>
     </row>
-    <row r="728" spans="10:17" ht="13">
+    <row r="728" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J728" s="21"/>
       <c r="N728" s="21"/>
       <c r="Q728" s="21"/>
     </row>
-    <row r="729" spans="10:17" ht="13">
+    <row r="729" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J729" s="21"/>
       <c r="N729" s="21"/>
       <c r="Q729" s="21"/>
     </row>
-    <row r="730" spans="10:17" ht="13">
+    <row r="730" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J730" s="21"/>
       <c r="N730" s="21"/>
       <c r="Q730" s="21"/>
     </row>
-    <row r="731" spans="10:17" ht="13">
+    <row r="731" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J731" s="21"/>
       <c r="N731" s="21"/>
       <c r="Q731" s="21"/>
     </row>
-    <row r="732" spans="10:17" ht="13">
+    <row r="732" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J732" s="21"/>
       <c r="N732" s="21"/>
       <c r="Q732" s="21"/>
     </row>
-    <row r="733" spans="10:17" ht="13">
+    <row r="733" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J733" s="21"/>
       <c r="N733" s="21"/>
       <c r="Q733" s="21"/>
     </row>
-    <row r="734" spans="10:17" ht="13">
+    <row r="734" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J734" s="21"/>
       <c r="N734" s="21"/>
       <c r="Q734" s="21"/>
     </row>
-    <row r="735" spans="10:17" ht="13">
+    <row r="735" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J735" s="21"/>
       <c r="N735" s="21"/>
       <c r="Q735" s="21"/>
     </row>
-    <row r="736" spans="10:17" ht="13">
+    <row r="736" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J736" s="21"/>
       <c r="N736" s="21"/>
       <c r="Q736" s="21"/>
     </row>
-    <row r="737" spans="10:17" ht="13">
+    <row r="737" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J737" s="21"/>
       <c r="N737" s="21"/>
       <c r="Q737" s="21"/>
     </row>
-    <row r="738" spans="10:17" ht="13">
+    <row r="738" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J738" s="21"/>
       <c r="N738" s="21"/>
       <c r="Q738" s="21"/>
     </row>
-    <row r="739" spans="10:17" ht="13">
+    <row r="739" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J739" s="21"/>
       <c r="N739" s="21"/>
       <c r="Q739" s="21"/>
     </row>
-    <row r="740" spans="10:17" ht="13">
+    <row r="740" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J740" s="21"/>
       <c r="N740" s="21"/>
       <c r="Q740" s="21"/>
     </row>
-    <row r="741" spans="10:17" ht="13">
+    <row r="741" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J741" s="21"/>
       <c r="N741" s="21"/>
       <c r="Q741" s="21"/>
     </row>
-    <row r="742" spans="10:17" ht="13">
+    <row r="742" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J742" s="21"/>
       <c r="N742" s="21"/>
       <c r="Q742" s="21"/>
     </row>
-    <row r="743" spans="10:17" ht="13">
+    <row r="743" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J743" s="21"/>
       <c r="N743" s="21"/>
       <c r="Q743" s="21"/>
     </row>
-    <row r="744" spans="10:17" ht="13">
+    <row r="744" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J744" s="21"/>
       <c r="N744" s="21"/>
       <c r="Q744" s="21"/>
     </row>
-    <row r="745" spans="10:17" ht="13">
+    <row r="745" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J745" s="21"/>
       <c r="N745" s="21"/>
       <c r="Q745" s="21"/>
     </row>
-    <row r="746" spans="10:17" ht="13">
+    <row r="746" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J746" s="21"/>
       <c r="N746" s="21"/>
       <c r="Q746" s="21"/>
     </row>
-    <row r="747" spans="10:17" ht="13">
+    <row r="747" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J747" s="21"/>
       <c r="N747" s="21"/>
       <c r="Q747" s="21"/>
     </row>
-    <row r="748" spans="10:17" ht="13">
+    <row r="748" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J748" s="21"/>
       <c r="N748" s="21"/>
       <c r="Q748" s="21"/>
     </row>
-    <row r="749" spans="10:17" ht="13">
+    <row r="749" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J749" s="21"/>
       <c r="N749" s="21"/>
       <c r="Q749" s="21"/>
     </row>
-    <row r="750" spans="10:17" ht="13">
+    <row r="750" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J750" s="21"/>
       <c r="N750" s="21"/>
       <c r="Q750" s="21"/>
     </row>
-    <row r="751" spans="10:17" ht="13">
+    <row r="751" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J751" s="21"/>
       <c r="N751" s="21"/>
       <c r="Q751" s="21"/>
     </row>
-    <row r="752" spans="10:17" ht="13">
+    <row r="752" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J752" s="21"/>
       <c r="N752" s="21"/>
       <c r="Q752" s="21"/>
     </row>
-    <row r="753" spans="10:17" ht="13">
+    <row r="753" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J753" s="21"/>
       <c r="N753" s="21"/>
       <c r="Q753" s="21"/>
     </row>
-    <row r="754" spans="10:17" ht="13">
+    <row r="754" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J754" s="21"/>
       <c r="N754" s="21"/>
       <c r="Q754" s="21"/>
     </row>
-    <row r="755" spans="10:17" ht="13">
+    <row r="755" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J755" s="21"/>
       <c r="N755" s="21"/>
       <c r="Q755" s="21"/>
     </row>
-    <row r="756" spans="10:17" ht="13">
+    <row r="756" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J756" s="21"/>
       <c r="N756" s="21"/>
       <c r="Q756" s="21"/>
     </row>
-    <row r="757" spans="10:17" ht="13">
+    <row r="757" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J757" s="21"/>
       <c r="N757" s="21"/>
       <c r="Q757" s="21"/>
     </row>
-    <row r="758" spans="10:17" ht="13">
+    <row r="758" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J758" s="21"/>
       <c r="N758" s="21"/>
       <c r="Q758" s="21"/>
     </row>
-    <row r="759" spans="10:17" ht="13">
+    <row r="759" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J759" s="21"/>
       <c r="N759" s="21"/>
       <c r="Q759" s="21"/>
     </row>
-    <row r="760" spans="10:17" ht="13">
+    <row r="760" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J760" s="21"/>
       <c r="N760" s="21"/>
       <c r="Q760" s="21"/>
     </row>
-    <row r="761" spans="10:17" ht="13">
+    <row r="761" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J761" s="21"/>
       <c r="N761" s="21"/>
       <c r="Q761" s="21"/>
     </row>
-    <row r="762" spans="10:17" ht="13">
+    <row r="762" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J762" s="21"/>
       <c r="N762" s="21"/>
       <c r="Q762" s="21"/>
     </row>
-    <row r="763" spans="10:17" ht="13">
+    <row r="763" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J763" s="21"/>
       <c r="N763" s="21"/>
       <c r="Q763" s="21"/>
     </row>
-    <row r="764" spans="10:17" ht="13">
+    <row r="764" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J764" s="21"/>
       <c r="N764" s="21"/>
       <c r="Q764" s="21"/>
     </row>
-    <row r="765" spans="10:17" ht="13">
+    <row r="765" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J765" s="21"/>
       <c r="N765" s="21"/>
       <c r="Q765" s="21"/>
     </row>
-    <row r="766" spans="10:17" ht="13">
+    <row r="766" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J766" s="21"/>
       <c r="N766" s="21"/>
       <c r="Q766" s="21"/>
     </row>
-    <row r="767" spans="10:17" ht="13">
+    <row r="767" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J767" s="21"/>
       <c r="N767" s="21"/>
       <c r="Q767" s="21"/>
     </row>
-    <row r="768" spans="10:17" ht="13">
+    <row r="768" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J768" s="21"/>
       <c r="N768" s="21"/>
       <c r="Q768" s="21"/>
     </row>
-    <row r="769" spans="10:17" ht="13">
+    <row r="769" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J769" s="21"/>
       <c r="N769" s="21"/>
       <c r="Q769" s="21"/>
     </row>
-    <row r="770" spans="10:17" ht="13">
+    <row r="770" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J770" s="21"/>
       <c r="N770" s="21"/>
       <c r="Q770" s="21"/>
     </row>
-    <row r="771" spans="10:17" ht="13">
+    <row r="771" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J771" s="21"/>
       <c r="N771" s="21"/>
       <c r="Q771" s="21"/>
     </row>
-    <row r="772" spans="10:17" ht="13">
+    <row r="772" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J772" s="21"/>
       <c r="N772" s="21"/>
       <c r="Q772" s="21"/>
     </row>
-    <row r="773" spans="10:17" ht="13">
+    <row r="773" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J773" s="21"/>
       <c r="N773" s="21"/>
       <c r="Q773" s="21"/>
     </row>
-    <row r="774" spans="10:17" ht="13">
+    <row r="774" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J774" s="21"/>
       <c r="N774" s="21"/>
       <c r="Q774" s="21"/>
     </row>
-    <row r="775" spans="10:17" ht="13">
+    <row r="775" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J775" s="21"/>
       <c r="N775" s="21"/>
       <c r="Q775" s="21"/>
     </row>
-    <row r="776" spans="10:17" ht="13">
+    <row r="776" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J776" s="21"/>
       <c r="N776" s="21"/>
       <c r="Q776" s="21"/>
     </row>
-    <row r="777" spans="10:17" ht="13">
+    <row r="777" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J777" s="21"/>
       <c r="N777" s="21"/>
       <c r="Q777" s="21"/>
     </row>
-    <row r="778" spans="10:17" ht="13">
+    <row r="778" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J778" s="21"/>
       <c r="N778" s="21"/>
       <c r="Q778" s="21"/>
     </row>
-    <row r="779" spans="10:17" ht="13">
+    <row r="779" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J779" s="21"/>
       <c r="N779" s="21"/>
       <c r="Q779" s="21"/>
     </row>
-    <row r="780" spans="10:17" ht="13">
+    <row r="780" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J780" s="21"/>
       <c r="N780" s="21"/>
       <c r="Q780" s="21"/>
     </row>
-    <row r="781" spans="10:17" ht="13">
+    <row r="781" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J781" s="21"/>
       <c r="N781" s="21"/>
       <c r="Q781" s="21"/>
     </row>
-    <row r="782" spans="10:17" ht="13">
+    <row r="782" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J782" s="21"/>
       <c r="N782" s="21"/>
       <c r="Q782" s="21"/>
     </row>
-    <row r="783" spans="10:17" ht="13">
+    <row r="783" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J783" s="21"/>
       <c r="N783" s="21"/>
       <c r="Q783" s="21"/>
     </row>
-    <row r="784" spans="10:17" ht="13">
+    <row r="784" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J784" s="21"/>
       <c r="N784" s="21"/>
       <c r="Q784" s="21"/>
     </row>
-    <row r="785" spans="10:17" ht="13">
+    <row r="785" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J785" s="21"/>
       <c r="N785" s="21"/>
       <c r="Q785" s="21"/>
     </row>
-    <row r="786" spans="10:17" ht="13">
+    <row r="786" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J786" s="21"/>
       <c r="N786" s="21"/>
       <c r="Q786" s="21"/>
     </row>
-    <row r="787" spans="10:17" ht="13">
+    <row r="787" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J787" s="21"/>
       <c r="N787" s="21"/>
       <c r="Q787" s="21"/>
     </row>
-    <row r="788" spans="10:17" ht="13">
+    <row r="788" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J788" s="21"/>
       <c r="N788" s="21"/>
       <c r="Q788" s="21"/>
     </row>
-    <row r="789" spans="10:17" ht="13">
+    <row r="789" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J789" s="21"/>
       <c r="N789" s="21"/>
       <c r="Q789" s="21"/>
     </row>
-    <row r="790" spans="10:17" ht="13">
+    <row r="790" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J790" s="21"/>
       <c r="N790" s="21"/>
       <c r="Q790" s="21"/>
     </row>
-    <row r="791" spans="10:17" ht="13">
+    <row r="791" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J791" s="21"/>
       <c r="N791" s="21"/>
       <c r="Q791" s="21"/>
     </row>
-    <row r="792" spans="10:17" ht="13">
+    <row r="792" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J792" s="21"/>
       <c r="N792" s="21"/>
       <c r="Q792" s="21"/>
     </row>
-    <row r="793" spans="10:17" ht="13">
+    <row r="793" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J793" s="21"/>
       <c r="N793" s="21"/>
       <c r="Q793" s="21"/>
     </row>
-    <row r="794" spans="10:17" ht="13">
+    <row r="794" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J794" s="21"/>
       <c r="N794" s="21"/>
       <c r="Q794" s="21"/>
     </row>
-    <row r="795" spans="10:17" ht="13">
+    <row r="795" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J795" s="21"/>
       <c r="N795" s="21"/>
       <c r="Q795" s="21"/>
     </row>
-    <row r="796" spans="10:17" ht="13">
+    <row r="796" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J796" s="21"/>
       <c r="N796" s="21"/>
       <c r="Q796" s="21"/>
     </row>
-    <row r="797" spans="10:17" ht="13">
+    <row r="797" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J797" s="21"/>
       <c r="N797" s="21"/>
       <c r="Q797" s="21"/>
     </row>
-    <row r="798" spans="10:17" ht="13">
+    <row r="798" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J798" s="21"/>
       <c r="N798" s="21"/>
       <c r="Q798" s="21"/>
     </row>
-    <row r="799" spans="10:17" ht="13">
+    <row r="799" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J799" s="21"/>
       <c r="N799" s="21"/>
       <c r="Q799" s="21"/>
     </row>
-    <row r="800" spans="10:17" ht="13">
+    <row r="800" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J800" s="21"/>
       <c r="N800" s="21"/>
       <c r="Q800" s="21"/>
     </row>
-    <row r="801" spans="10:17" ht="13">
+    <row r="801" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J801" s="21"/>
       <c r="N801" s="21"/>
       <c r="Q801" s="21"/>
     </row>
-    <row r="802" spans="10:17" ht="13">
+    <row r="802" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J802" s="21"/>
       <c r="N802" s="21"/>
       <c r="Q802" s="21"/>
     </row>
-    <row r="803" spans="10:17" ht="13">
+    <row r="803" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J803" s="21"/>
       <c r="N803" s="21"/>
       <c r="Q803" s="21"/>
     </row>
-    <row r="804" spans="10:17" ht="13">
+    <row r="804" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J804" s="21"/>
       <c r="N804" s="21"/>
       <c r="Q804" s="21"/>
     </row>
-    <row r="805" spans="10:17" ht="13">
+    <row r="805" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J805" s="21"/>
       <c r="N805" s="21"/>
       <c r="Q805" s="21"/>
     </row>
-    <row r="806" spans="10:17" ht="13">
+    <row r="806" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J806" s="21"/>
       <c r="N806" s="21"/>
       <c r="Q806" s="21"/>
     </row>
-    <row r="807" spans="10:17" ht="13">
+    <row r="807" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J807" s="21"/>
       <c r="N807" s="21"/>
       <c r="Q807" s="21"/>
     </row>
-    <row r="808" spans="10:17" ht="13">
+    <row r="808" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J808" s="21"/>
       <c r="N808" s="21"/>
       <c r="Q808" s="21"/>
     </row>
-    <row r="809" spans="10:17" ht="13">
+    <row r="809" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J809" s="21"/>
       <c r="N809" s="21"/>
       <c r="Q809" s="21"/>
     </row>
-    <row r="810" spans="10:17" ht="13">
+    <row r="810" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J810" s="21"/>
       <c r="N810" s="21"/>
       <c r="Q810" s="21"/>
     </row>
-    <row r="811" spans="10:17" ht="13">
+    <row r="811" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J811" s="21"/>
       <c r="N811" s="21"/>
       <c r="Q811" s="21"/>
     </row>
-    <row r="812" spans="10:17" ht="13">
+    <row r="812" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J812" s="21"/>
       <c r="N812" s="21"/>
       <c r="Q812" s="21"/>
     </row>
-    <row r="813" spans="10:17" ht="13">
+    <row r="813" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J813" s="21"/>
       <c r="N813" s="21"/>
       <c r="Q813" s="21"/>
     </row>
-    <row r="814" spans="10:17" ht="13">
+    <row r="814" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J814" s="21"/>
       <c r="N814" s="21"/>
       <c r="Q814" s="21"/>
     </row>
-    <row r="815" spans="10:17" ht="13">
+    <row r="815" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J815" s="21"/>
       <c r="N815" s="21"/>
       <c r="Q815" s="21"/>
     </row>
-    <row r="816" spans="10:17" ht="13">
+    <row r="816" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J816" s="21"/>
       <c r="N816" s="21"/>
       <c r="Q816" s="21"/>
     </row>
-    <row r="817" spans="10:17" ht="13">
+    <row r="817" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J817" s="21"/>
       <c r="N817" s="21"/>
       <c r="Q817" s="21"/>
     </row>
-    <row r="818" spans="10:17" ht="13">
+    <row r="818" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J818" s="21"/>
       <c r="N818" s="21"/>
       <c r="Q818" s="21"/>
     </row>
-    <row r="819" spans="10:17" ht="13">
+    <row r="819" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J819" s="21"/>
       <c r="N819" s="21"/>
       <c r="Q819" s="21"/>
     </row>
-    <row r="820" spans="10:17" ht="13">
+    <row r="820" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J820" s="21"/>
       <c r="N820" s="21"/>
       <c r="Q820" s="21"/>
     </row>
-    <row r="821" spans="10:17" ht="13">
+    <row r="821" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J821" s="21"/>
       <c r="N821" s="21"/>
       <c r="Q821" s="21"/>
     </row>
-    <row r="822" spans="10:17" ht="13">
+    <row r="822" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J822" s="21"/>
       <c r="N822" s="21"/>
       <c r="Q822" s="21"/>
     </row>
-    <row r="823" spans="10:17" ht="13">
+    <row r="823" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J823" s="21"/>
       <c r="N823" s="21"/>
       <c r="Q823" s="21"/>
     </row>
-    <row r="824" spans="10:17" ht="13">
+    <row r="824" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J824" s="21"/>
       <c r="N824" s="21"/>
       <c r="Q824" s="21"/>
     </row>
-    <row r="825" spans="10:17" ht="13">
+    <row r="825" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J825" s="21"/>
       <c r="N825" s="21"/>
       <c r="Q825" s="21"/>
     </row>
-    <row r="826" spans="10:17" ht="13">
+    <row r="826" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J826" s="21"/>
       <c r="N826" s="21"/>
       <c r="Q826" s="21"/>
     </row>
-    <row r="827" spans="10:17" ht="13">
+    <row r="827" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J827" s="21"/>
       <c r="N827" s="21"/>
       <c r="Q827" s="21"/>
     </row>
-    <row r="828" spans="10:17" ht="13">
+    <row r="828" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J828" s="21"/>
       <c r="N828" s="21"/>
       <c r="Q828" s="21"/>
     </row>
-    <row r="829" spans="10:17" ht="13">
+    <row r="829" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J829" s="21"/>
       <c r="N829" s="21"/>
       <c r="Q829" s="21"/>
     </row>
-    <row r="830" spans="10:17" ht="13">
+    <row r="830" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J830" s="21"/>
       <c r="N830" s="21"/>
       <c r="Q830" s="21"/>
     </row>
-    <row r="831" spans="10:17" ht="13">
+    <row r="831" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J831" s="21"/>
       <c r="N831" s="21"/>
       <c r="Q831" s="21"/>
     </row>
-    <row r="832" spans="10:17" ht="13">
+    <row r="832" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J832" s="21"/>
       <c r="N832" s="21"/>
       <c r="Q832" s="21"/>
     </row>
-    <row r="833" spans="10:17" ht="13">
+    <row r="833" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J833" s="21"/>
       <c r="N833" s="21"/>
       <c r="Q833" s="21"/>
     </row>
-    <row r="834" spans="10:17" ht="13">
+    <row r="834" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J834" s="21"/>
       <c r="N834" s="21"/>
       <c r="Q834" s="21"/>
     </row>
-    <row r="835" spans="10:17" ht="13">
+    <row r="835" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J835" s="21"/>
       <c r="N835" s="21"/>
       <c r="Q835" s="21"/>
     </row>
-    <row r="836" spans="10:17" ht="13">
+    <row r="836" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J836" s="21"/>
       <c r="N836" s="21"/>
       <c r="Q836" s="21"/>
     </row>
-    <row r="837" spans="10:17" ht="13">
+    <row r="837" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J837" s="21"/>
       <c r="N837" s="21"/>
       <c r="Q837" s="21"/>
     </row>
-    <row r="838" spans="10:17" ht="13">
+    <row r="838" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J838" s="21"/>
       <c r="N838" s="21"/>
       <c r="Q838" s="21"/>
     </row>
-    <row r="839" spans="10:17" ht="13">
+    <row r="839" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J839" s="21"/>
       <c r="N839" s="21"/>
       <c r="Q839" s="21"/>
     </row>
-    <row r="840" spans="10:17" ht="13">
+    <row r="840" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J840" s="21"/>
       <c r="N840" s="21"/>
       <c r="Q840" s="21"/>
     </row>
-    <row r="841" spans="10:17" ht="13">
+    <row r="841" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J841" s="21"/>
       <c r="N841" s="21"/>
       <c r="Q841" s="21"/>
     </row>
-    <row r="842" spans="10:17" ht="13">
+    <row r="842" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J842" s="21"/>
       <c r="N842" s="21"/>
       <c r="Q842" s="21"/>
     </row>
-    <row r="843" spans="10:17" ht="13">
+    <row r="843" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J843" s="21"/>
       <c r="N843" s="21"/>
       <c r="Q843" s="21"/>
     </row>
-    <row r="844" spans="10:17" ht="13">
+    <row r="844" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J844" s="21"/>
       <c r="N844" s="21"/>
       <c r="Q844" s="21"/>
     </row>
-    <row r="845" spans="10:17" ht="13">
+    <row r="845" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J845" s="21"/>
       <c r="N845" s="21"/>
       <c r="Q845" s="21"/>
     </row>
-    <row r="846" spans="10:17" ht="13">
+    <row r="846" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J846" s="21"/>
       <c r="N846" s="21"/>
       <c r="Q846" s="21"/>
     </row>
-    <row r="847" spans="10:17" ht="13">
+    <row r="847" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J847" s="21"/>
       <c r="N847" s="21"/>
       <c r="Q847" s="21"/>
     </row>
-    <row r="848" spans="10:17" ht="13">
+    <row r="848" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J848" s="21"/>
       <c r="N848" s="21"/>
       <c r="Q848" s="21"/>
     </row>
-    <row r="849" spans="10:17" ht="13">
+    <row r="849" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J849" s="21"/>
       <c r="N849" s="21"/>
       <c r="Q849" s="21"/>
     </row>
-    <row r="850" spans="10:17" ht="13">
+    <row r="850" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J850" s="21"/>
       <c r="N850" s="21"/>
       <c r="Q850" s="21"/>
     </row>
-    <row r="851" spans="10:17" ht="13">
+    <row r="851" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J851" s="21"/>
       <c r="N851" s="21"/>
       <c r="Q851" s="21"/>
     </row>
-    <row r="852" spans="10:17" ht="13">
+    <row r="852" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J852" s="21"/>
       <c r="N852" s="21"/>
       <c r="Q852" s="21"/>
     </row>
-    <row r="853" spans="10:17" ht="13">
+    <row r="853" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J853" s="21"/>
       <c r="N853" s="21"/>
       <c r="Q853" s="21"/>
     </row>
-    <row r="854" spans="10:17" ht="13">
+    <row r="854" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J854" s="21"/>
       <c r="N854" s="21"/>
       <c r="Q854" s="21"/>
     </row>
-    <row r="855" spans="10:17" ht="13">
+    <row r="855" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J855" s="21"/>
       <c r="N855" s="21"/>
       <c r="Q855" s="21"/>
     </row>
-    <row r="856" spans="10:17" ht="13">
+    <row r="856" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J856" s="21"/>
       <c r="N856" s="21"/>
       <c r="Q856" s="21"/>
     </row>
-    <row r="857" spans="10:17" ht="13">
+    <row r="857" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J857" s="21"/>
       <c r="N857" s="21"/>
       <c r="Q857" s="21"/>
     </row>
-    <row r="858" spans="10:17" ht="13">
+    <row r="858" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J858" s="21"/>
       <c r="N858" s="21"/>
       <c r="Q858" s="21"/>
     </row>
-    <row r="859" spans="10:17" ht="13">
+    <row r="859" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J859" s="21"/>
       <c r="N859" s="21"/>
       <c r="Q859" s="21"/>
     </row>
-    <row r="860" spans="10:17" ht="13">
+    <row r="860" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J860" s="21"/>
       <c r="N860" s="21"/>
       <c r="Q860" s="21"/>
     </row>
-    <row r="861" spans="10:17" ht="13">
+    <row r="861" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J861" s="21"/>
       <c r="N861" s="21"/>
       <c r="Q861" s="21"/>
     </row>
-    <row r="862" spans="10:17" ht="13">
+    <row r="862" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J862" s="21"/>
       <c r="N862" s="21"/>
       <c r="Q862" s="21"/>
     </row>
-    <row r="863" spans="10:17" ht="13">
+    <row r="863" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J863" s="21"/>
       <c r="N863" s="21"/>
       <c r="Q863" s="21"/>
     </row>
-    <row r="864" spans="10:17" ht="13">
+    <row r="864" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J864" s="21"/>
       <c r="N864" s="21"/>
       <c r="Q864" s="21"/>
     </row>
-    <row r="865" spans="10:17" ht="13">
+    <row r="865" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J865" s="21"/>
       <c r="N865" s="21"/>
       <c r="Q865" s="21"/>
     </row>
-    <row r="866" spans="10:17" ht="13">
+    <row r="866" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J866" s="21"/>
       <c r="N866" s="21"/>
       <c r="Q866" s="21"/>
     </row>
-    <row r="867" spans="10:17" ht="13">
+    <row r="867" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J867" s="21"/>
       <c r="N867" s="21"/>
       <c r="Q867" s="21"/>
     </row>
-    <row r="868" spans="10:17" ht="13">
+    <row r="868" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J868" s="21"/>
       <c r="N868" s="21"/>
       <c r="Q868" s="21"/>
     </row>
-    <row r="869" spans="10:17" ht="13">
+    <row r="869" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J869" s="21"/>
       <c r="N869" s="21"/>
       <c r="Q869" s="21"/>
     </row>
-    <row r="870" spans="10:17" ht="13">
+    <row r="870" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J870" s="21"/>
       <c r="N870" s="21"/>
       <c r="Q870" s="21"/>
     </row>
-    <row r="871" spans="10:17" ht="13">
+    <row r="871" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J871" s="21"/>
       <c r="N871" s="21"/>
       <c r="Q871" s="21"/>
     </row>
-    <row r="872" spans="10:17" ht="13">
+    <row r="872" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J872" s="21"/>
       <c r="N872" s="21"/>
       <c r="Q872" s="21"/>
     </row>
-    <row r="873" spans="10:17" ht="13">
+    <row r="873" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J873" s="21"/>
       <c r="N873" s="21"/>
       <c r="Q873" s="21"/>
     </row>
-    <row r="874" spans="10:17" ht="13">
+    <row r="874" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J874" s="21"/>
       <c r="N874" s="21"/>
       <c r="Q874" s="21"/>
     </row>
-    <row r="875" spans="10:17" ht="13">
+    <row r="875" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J875" s="21"/>
       <c r="N875" s="21"/>
       <c r="Q875" s="21"/>
     </row>
-    <row r="876" spans="10:17" ht="13">
+    <row r="876" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J876" s="21"/>
       <c r="N876" s="21"/>
       <c r="Q876" s="21"/>
     </row>
-    <row r="877" spans="10:17" ht="13">
+    <row r="877" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J877" s="21"/>
       <c r="N877" s="21"/>
       <c r="Q877" s="21"/>
     </row>
-    <row r="878" spans="10:17" ht="13">
+    <row r="878" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J878" s="21"/>
       <c r="N878" s="21"/>
       <c r="Q878" s="21"/>
     </row>
-    <row r="879" spans="10:17" ht="13">
+    <row r="879" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J879" s="21"/>
       <c r="N879" s="21"/>
       <c r="Q879" s="21"/>
     </row>
-    <row r="880" spans="10:17" ht="13">
+    <row r="880" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J880" s="21"/>
       <c r="N880" s="21"/>
       <c r="Q880" s="21"/>
     </row>
-    <row r="881" spans="10:17" ht="13">
+    <row r="881" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J881" s="21"/>
       <c r="N881" s="21"/>
       <c r="Q881" s="21"/>
     </row>
-    <row r="882" spans="10:17" ht="13">
+    <row r="882" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J882" s="21"/>
       <c r="N882" s="21"/>
       <c r="Q882" s="21"/>
     </row>
-    <row r="883" spans="10:17" ht="13">
+    <row r="883" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J883" s="21"/>
       <c r="N883" s="21"/>
       <c r="Q883" s="21"/>
     </row>
-    <row r="884" spans="10:17" ht="13">
+    <row r="884" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J884" s="21"/>
       <c r="N884" s="21"/>
       <c r="Q884" s="21"/>
     </row>
-    <row r="885" spans="10:17" ht="13">
+    <row r="885" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J885" s="21"/>
       <c r="N885" s="21"/>
       <c r="Q885" s="21"/>
     </row>
-    <row r="886" spans="10:17" ht="13">
+    <row r="886" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J886" s="21"/>
       <c r="N886" s="21"/>
       <c r="Q886" s="21"/>
     </row>
-    <row r="887" spans="10:17" ht="13">
+    <row r="887" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J887" s="21"/>
       <c r="N887" s="21"/>
       <c r="Q887" s="21"/>
     </row>
-    <row r="888" spans="10:17" ht="13">
+    <row r="888" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J888" s="21"/>
       <c r="N888" s="21"/>
       <c r="Q888" s="21"/>
     </row>
-    <row r="889" spans="10:17" ht="13">
+    <row r="889" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J889" s="21"/>
       <c r="N889" s="21"/>
       <c r="Q889" s="21"/>
     </row>
-    <row r="890" spans="10:17" ht="13">
+    <row r="890" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J890" s="21"/>
       <c r="N890" s="21"/>
       <c r="Q890" s="21"/>
     </row>
-    <row r="891" spans="10:17" ht="13">
+    <row r="891" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J891" s="21"/>
       <c r="N891" s="21"/>
       <c r="Q891" s="21"/>
     </row>
-    <row r="892" spans="10:17" ht="13">
+    <row r="892" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J892" s="21"/>
       <c r="N892" s="21"/>
       <c r="Q892" s="21"/>
     </row>
-    <row r="893" spans="10:17" ht="13">
+    <row r="893" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J893" s="21"/>
       <c r="N893" s="21"/>
       <c r="Q893" s="21"/>
     </row>
-    <row r="894" spans="10:17" ht="13">
+    <row r="894" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J894" s="21"/>
       <c r="N894" s="21"/>
       <c r="Q894" s="21"/>
     </row>
-    <row r="895" spans="10:17" ht="13">
+    <row r="895" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J895" s="21"/>
       <c r="N895" s="21"/>
       <c r="Q895" s="21"/>
     </row>
-    <row r="896" spans="10:17" ht="13">
+    <row r="896" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J896" s="21"/>
       <c r="N896" s="21"/>
       <c r="Q896" s="21"/>
     </row>
-    <row r="897" spans="10:17" ht="13">
+    <row r="897" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J897" s="21"/>
       <c r="N897" s="21"/>
       <c r="Q897" s="21"/>
     </row>
-    <row r="898" spans="10:17" ht="13">
+    <row r="898" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J898" s="21"/>
       <c r="N898" s="21"/>
       <c r="Q898" s="21"/>
     </row>
-    <row r="899" spans="10:17" ht="13">
+    <row r="899" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J899" s="21"/>
       <c r="N899" s="21"/>
       <c r="Q899" s="21"/>
     </row>
-    <row r="900" spans="10:17" ht="13">
+    <row r="900" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J900" s="21"/>
       <c r="N900" s="21"/>
       <c r="Q900" s="21"/>
     </row>
-    <row r="901" spans="10:17" ht="13">
+    <row r="901" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J901" s="21"/>
       <c r="N901" s="21"/>
       <c r="Q901" s="21"/>
     </row>
-    <row r="902" spans="10:17" ht="13">
+    <row r="902" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J902" s="21"/>
       <c r="N902" s="21"/>
       <c r="Q902" s="21"/>
     </row>
-    <row r="903" spans="10:17" ht="13">
+    <row r="903" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J903" s="21"/>
       <c r="N903" s="21"/>
       <c r="Q903" s="21"/>
     </row>
-    <row r="904" spans="10:17" ht="13">
+    <row r="904" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J904" s="21"/>
       <c r="N904" s="21"/>
       <c r="Q904" s="21"/>
     </row>
-    <row r="905" spans="10:17" ht="13">
+    <row r="905" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J905" s="21"/>
       <c r="N905" s="21"/>
       <c r="Q905" s="21"/>
     </row>
-    <row r="906" spans="10:17" ht="13">
+    <row r="906" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J906" s="21"/>
       <c r="N906" s="21"/>
       <c r="Q906" s="21"/>
     </row>
-    <row r="907" spans="10:17" ht="13">
+    <row r="907" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J907" s="21"/>
       <c r="N907" s="21"/>
       <c r="Q907" s="21"/>
     </row>
-    <row r="908" spans="10:17" ht="13">
+    <row r="908" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J908" s="21"/>
       <c r="N908" s="21"/>
       <c r="Q908" s="21"/>
     </row>
-    <row r="909" spans="10:17" ht="13">
+    <row r="909" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J909" s="21"/>
       <c r="N909" s="21"/>
       <c r="Q909" s="21"/>
     </row>
-    <row r="910" spans="10:17" ht="13">
+    <row r="910" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J910" s="21"/>
       <c r="N910" s="21"/>
       <c r="Q910" s="21"/>
     </row>
-    <row r="911" spans="10:17" ht="13">
+    <row r="911" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J911" s="21"/>
       <c r="N911" s="21"/>
       <c r="Q911" s="21"/>
     </row>
-    <row r="912" spans="10:17" ht="13">
+    <row r="912" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J912" s="21"/>
       <c r="N912" s="21"/>
       <c r="Q912" s="21"/>
     </row>
-    <row r="913" spans="10:17" ht="13">
+    <row r="913" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J913" s="21"/>
       <c r="N913" s="21"/>
       <c r="Q913" s="21"/>
     </row>
-    <row r="914" spans="10:17" ht="13">
+    <row r="914" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J914" s="21"/>
       <c r="N914" s="21"/>
       <c r="Q914" s="21"/>
     </row>
-    <row r="915" spans="10:17" ht="13">
+    <row r="915" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J915" s="21"/>
       <c r="N915" s="21"/>
       <c r="Q915" s="21"/>
     </row>
-    <row r="916" spans="10:17" ht="13">
+    <row r="916" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J916" s="21"/>
       <c r="N916" s="21"/>
       <c r="Q916" s="21"/>
     </row>
-    <row r="917" spans="10:17" ht="13">
+    <row r="917" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J917" s="21"/>
       <c r="N917" s="21"/>
       <c r="Q917" s="21"/>
     </row>
-    <row r="918" spans="10:17" ht="13">
+    <row r="918" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J918" s="21"/>
       <c r="N918" s="21"/>
       <c r="Q918" s="21"/>
     </row>
-    <row r="919" spans="10:17" ht="13">
+    <row r="919" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J919" s="21"/>
       <c r="N919" s="21"/>
       <c r="Q919" s="21"/>
     </row>
-    <row r="920" spans="10:17" ht="13">
+    <row r="920" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J920" s="21"/>
       <c r="N920" s="21"/>
       <c r="Q920" s="21"/>
     </row>
-    <row r="921" spans="10:17" ht="13">
+    <row r="921" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J921" s="21"/>
       <c r="N921" s="21"/>
       <c r="Q921" s="21"/>
     </row>
-    <row r="922" spans="10:17" ht="13">
+    <row r="922" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J922" s="21"/>
       <c r="N922" s="21"/>
       <c r="Q922" s="21"/>
     </row>
-    <row r="923" spans="10:17" ht="13">
+    <row r="923" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J923" s="21"/>
       <c r="N923" s="21"/>
       <c r="Q923" s="21"/>
     </row>
-    <row r="924" spans="10:17" ht="13">
+    <row r="924" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J924" s="21"/>
       <c r="N924" s="21"/>
       <c r="Q924" s="21"/>
     </row>
-    <row r="925" spans="10:17" ht="13">
+    <row r="925" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J925" s="21"/>
       <c r="N925" s="21"/>
       <c r="Q925" s="21"/>
     </row>
-    <row r="926" spans="10:17" ht="13">
+    <row r="926" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J926" s="21"/>
       <c r="N926" s="21"/>
       <c r="Q926" s="21"/>
     </row>
-    <row r="927" spans="10:17" ht="13">
+    <row r="927" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J927" s="21"/>
       <c r="N927" s="21"/>
       <c r="Q927" s="21"/>
     </row>
-    <row r="928" spans="10:17" ht="13">
+    <row r="928" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J928" s="21"/>
       <c r="N928" s="21"/>
       <c r="Q928" s="21"/>
     </row>
-    <row r="929" spans="10:17" ht="13">
+    <row r="929" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J929" s="21"/>
       <c r="N929" s="21"/>
       <c r="Q929" s="21"/>
     </row>
-    <row r="930" spans="10:17" ht="13">
+    <row r="930" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J930" s="21"/>
       <c r="N930" s="21"/>
       <c r="Q930" s="21"/>
     </row>
-    <row r="931" spans="10:17" ht="13">
+    <row r="931" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J931" s="21"/>
       <c r="N931" s="21"/>
       <c r="Q931" s="21"/>
     </row>
-    <row r="932" spans="10:17" ht="13">
+    <row r="932" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J932" s="21"/>
       <c r="N932" s="21"/>
       <c r="Q932" s="21"/>
     </row>
-    <row r="933" spans="10:17" ht="13">
+    <row r="933" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J933" s="21"/>
       <c r="N933" s="21"/>
       <c r="Q933" s="21"/>
     </row>
-    <row r="934" spans="10:17" ht="13">
+    <row r="934" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J934" s="21"/>
       <c r="N934" s="21"/>
       <c r="Q934" s="21"/>
     </row>
-    <row r="935" spans="10:17" ht="13">
+    <row r="935" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J935" s="21"/>
       <c r="N935" s="21"/>
       <c r="Q935" s="21"/>
     </row>
-    <row r="936" spans="10:17" ht="13">
+    <row r="936" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J936" s="21"/>
       <c r="N936" s="21"/>
       <c r="Q936" s="21"/>
     </row>
-    <row r="937" spans="10:17" ht="13">
+    <row r="937" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J937" s="21"/>
       <c r="N937" s="21"/>
       <c r="Q937" s="21"/>
     </row>
-    <row r="938" spans="10:17" ht="13">
+    <row r="938" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J938" s="21"/>
       <c r="N938" s="21"/>
       <c r="Q938" s="21"/>
     </row>
-    <row r="939" spans="10:17" ht="13">
+    <row r="939" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J939" s="21"/>
       <c r="N939" s="21"/>
       <c r="Q939" s="21"/>
     </row>
-    <row r="940" spans="10:17" ht="13">
+    <row r="940" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J940" s="21"/>
       <c r="N940" s="21"/>
       <c r="Q940" s="21"/>
     </row>
-    <row r="941" spans="10:17" ht="13">
+    <row r="941" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J941" s="21"/>
       <c r="N941" s="21"/>
       <c r="Q941" s="21"/>
     </row>
-    <row r="942" spans="10:17" ht="13">
+    <row r="942" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J942" s="21"/>
       <c r="N942" s="21"/>
       <c r="Q942" s="21"/>
     </row>
-    <row r="943" spans="10:17" ht="13">
+    <row r="943" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J943" s="21"/>
       <c r="N943" s="21"/>
       <c r="Q943" s="21"/>
     </row>
-    <row r="944" spans="10:17" ht="13">
+    <row r="944" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J944" s="21"/>
       <c r="N944" s="21"/>
       <c r="Q944" s="21"/>
     </row>
-    <row r="945" spans="10:17" ht="13">
+    <row r="945" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J945" s="21"/>
       <c r="N945" s="21"/>
       <c r="Q945" s="21"/>
     </row>
-    <row r="946" spans="10:17" ht="13">
+    <row r="946" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J946" s="21"/>
       <c r="N946" s="21"/>
       <c r="Q946" s="21"/>
     </row>
-    <row r="947" spans="10:17" ht="13">
+    <row r="947" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J947" s="21"/>
       <c r="N947" s="21"/>
       <c r="Q947" s="21"/>
     </row>
-    <row r="948" spans="10:17" ht="13">
+    <row r="948" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J948" s="21"/>
       <c r="N948" s="21"/>
       <c r="Q948" s="21"/>
     </row>
-    <row r="949" spans="10:17" ht="13">
+    <row r="949" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J949" s="21"/>
       <c r="N949" s="21"/>
       <c r="Q949" s="21"/>
     </row>
-    <row r="950" spans="10:17" ht="13">
+    <row r="950" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J950" s="21"/>
       <c r="N950" s="21"/>
       <c r="Q950" s="21"/>
     </row>
-    <row r="951" spans="10:17" ht="13">
+    <row r="951" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J951" s="21"/>
       <c r="N951" s="21"/>
       <c r="Q951" s="21"/>
     </row>
-    <row r="952" spans="10:17" ht="13">
+    <row r="952" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J952" s="21"/>
       <c r="N952" s="21"/>
       <c r="Q952" s="21"/>
     </row>
-    <row r="953" spans="10:17" ht="13">
+    <row r="953" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J953" s="21"/>
       <c r="N953" s="21"/>
       <c r="Q953" s="21"/>
     </row>
-    <row r="954" spans="10:17" ht="13">
+    <row r="954" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J954" s="21"/>
       <c r="N954" s="21"/>
       <c r="Q954" s="21"/>
     </row>
-    <row r="955" spans="10:17" ht="13">
+    <row r="955" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J955" s="21"/>
       <c r="N955" s="21"/>
       <c r="Q955" s="21"/>
     </row>
-    <row r="956" spans="10:17" ht="13">
+    <row r="956" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J956" s="21"/>
       <c r="N956" s="21"/>
       <c r="Q956" s="21"/>
     </row>
-    <row r="957" spans="10:17" ht="13">
+    <row r="957" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J957" s="21"/>
       <c r="N957" s="21"/>
       <c r="Q957" s="21"/>
     </row>
-    <row r="958" spans="10:17" ht="13">
+    <row r="958" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J958" s="21"/>
       <c r="N958" s="21"/>
       <c r="Q958" s="21"/>
     </row>
-    <row r="959" spans="10:17" ht="13">
+    <row r="959" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J959" s="21"/>
       <c r="N959" s="21"/>
       <c r="Q959" s="21"/>
     </row>
-    <row r="960" spans="10:17" ht="13">
+    <row r="960" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J960" s="21"/>
       <c r="N960" s="21"/>
       <c r="Q960" s="21"/>
     </row>
-    <row r="961" spans="10:17" ht="13">
+    <row r="961" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J961" s="21"/>
       <c r="N961" s="21"/>
       <c r="Q961" s="21"/>
     </row>
-    <row r="962" spans="10:17" ht="13">
+    <row r="962" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J962" s="21"/>
       <c r="N962" s="21"/>
       <c r="Q962" s="21"/>
     </row>
-    <row r="963" spans="10:17" ht="13">
+    <row r="963" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J963" s="21"/>
       <c r="N963" s="21"/>
       <c r="Q963" s="21"/>
     </row>
-    <row r="964" spans="10:17" ht="13">
+    <row r="964" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J964" s="21"/>
       <c r="N964" s="21"/>
       <c r="Q964" s="21"/>
     </row>
-    <row r="965" spans="10:17" ht="13">
+    <row r="965" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J965" s="21"/>
       <c r="N965" s="21"/>
       <c r="Q965" s="21"/>
     </row>
-    <row r="966" spans="10:17" ht="13">
+    <row r="966" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J966" s="21"/>
       <c r="N966" s="21"/>
       <c r="Q966" s="21"/>
     </row>
-    <row r="967" spans="10:17" ht="13">
+    <row r="967" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J967" s="21"/>
       <c r="N967" s="21"/>
       <c r="Q967" s="21"/>
     </row>
-    <row r="968" spans="10:17" ht="13">
+    <row r="968" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J968" s="21"/>
       <c r="N968" s="21"/>
       <c r="Q968" s="21"/>
     </row>
-    <row r="969" spans="10:17" ht="13">
+    <row r="969" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J969" s="21"/>
       <c r="N969" s="21"/>
       <c r="Q969" s="21"/>
     </row>
-    <row r="970" spans="10:17" ht="13">
+    <row r="970" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J970" s="21"/>
       <c r="N970" s="21"/>
       <c r="Q970" s="21"/>
     </row>
-    <row r="971" spans="10:17" ht="13">
+    <row r="971" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J971" s="21"/>
       <c r="N971" s="21"/>
       <c r="Q971" s="21"/>
     </row>
-    <row r="972" spans="10:17" ht="13">
+    <row r="972" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J972" s="21"/>
       <c r="N972" s="21"/>
       <c r="Q972" s="21"/>
     </row>
-    <row r="973" spans="10:17" ht="13">
+    <row r="973" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J973" s="21"/>
       <c r="N973" s="21"/>
       <c r="Q973" s="21"/>
     </row>
-    <row r="974" spans="10:17" ht="13">
+    <row r="974" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J974" s="21"/>
       <c r="N974" s="21"/>
       <c r="Q974" s="21"/>
     </row>
-    <row r="975" spans="10:17" ht="13">
+    <row r="975" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J975" s="21"/>
       <c r="N975" s="21"/>
       <c r="Q975" s="21"/>
     </row>
-    <row r="976" spans="10:17" ht="13">
+    <row r="976" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J976" s="21"/>
       <c r="N976" s="21"/>
       <c r="Q976" s="21"/>
     </row>
-    <row r="977" spans="10:17" ht="13">
+    <row r="977" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J977" s="21"/>
       <c r="N977" s="21"/>
       <c r="Q977" s="21"/>
     </row>
-    <row r="978" spans="10:17" ht="13">
+    <row r="978" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J978" s="21"/>
       <c r="N978" s="21"/>
       <c r="Q978" s="21"/>
     </row>
-    <row r="979" spans="10:17" ht="13">
+    <row r="979" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J979" s="21"/>
       <c r="N979" s="21"/>
       <c r="Q979" s="21"/>
     </row>
-    <row r="980" spans="10:17" ht="13">
+    <row r="980" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J980" s="21"/>
       <c r="N980" s="21"/>
       <c r="Q980" s="21"/>
     </row>
-    <row r="981" spans="10:17" ht="13">
+    <row r="981" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J981" s="21"/>
       <c r="N981" s="21"/>
       <c r="Q981" s="21"/>
     </row>
-    <row r="982" spans="10:17" ht="13">
+    <row r="982" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J982" s="21"/>
       <c r="N982" s="21"/>
       <c r="Q982" s="21"/>
     </row>
-    <row r="983" spans="10:17" ht="13">
+    <row r="983" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J983" s="21"/>
       <c r="N983" s="21"/>
       <c r="Q983" s="21"/>
     </row>
-    <row r="984" spans="10:17" ht="13">
+    <row r="984" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J984" s="21"/>
       <c r="N984" s="21"/>
       <c r="Q984" s="21"/>
     </row>
-    <row r="985" spans="10:17" ht="13">
+    <row r="985" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J985" s="21"/>
       <c r="N985" s="21"/>
       <c r="Q985" s="21"/>
     </row>
-    <row r="986" spans="10:17" ht="13">
+    <row r="986" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J986" s="21"/>
       <c r="N986" s="21"/>
       <c r="Q986" s="21"/>
     </row>
-    <row r="987" spans="10:17" ht="13">
+    <row r="987" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J987" s="21"/>
       <c r="N987" s="21"/>
       <c r="Q987" s="21"/>
     </row>
-    <row r="988" spans="10:17" ht="13">
+    <row r="988" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J988" s="21"/>
       <c r="N988" s="21"/>
       <c r="Q988" s="21"/>
     </row>
-    <row r="989" spans="10:17" ht="13">
+    <row r="989" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J989" s="21"/>
       <c r="N989" s="21"/>
       <c r="Q989" s="21"/>
     </row>
-    <row r="990" spans="10:17" ht="13">
+    <row r="990" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J990" s="21"/>
       <c r="N990" s="21"/>
       <c r="Q990" s="21"/>
     </row>
-    <row r="991" spans="10:17" ht="13">
+    <row r="991" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J991" s="21"/>
       <c r="N991" s="21"/>
       <c r="Q991" s="21"/>
     </row>
-    <row r="992" spans="10:17" ht="13">
+    <row r="992" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J992" s="21"/>
       <c r="N992" s="21"/>
       <c r="Q992" s="21"/>
     </row>
-    <row r="993" spans="10:17" ht="13">
+    <row r="993" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J993" s="21"/>
       <c r="N993" s="21"/>
       <c r="Q993" s="21"/>
     </row>
-    <row r="994" spans="10:17" ht="13">
+    <row r="994" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J994" s="21"/>
       <c r="N994" s="21"/>
       <c r="Q994" s="21"/>
     </row>
-    <row r="995" spans="10:17" ht="13">
+    <row r="995" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J995" s="21"/>
       <c r="N995" s="21"/>
       <c r="Q995" s="21"/>
     </row>
-    <row r="996" spans="10:17" ht="13">
+    <row r="996" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J996" s="21"/>
       <c r="N996" s="21"/>
       <c r="Q996" s="21"/>
     </row>
-    <row r="997" spans="10:17" ht="13">
+    <row r="997" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J997" s="21"/>
       <c r="N997" s="21"/>
       <c r="Q997" s="21"/>
     </row>
-    <row r="998" spans="10:17" ht="13">
+    <row r="998" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J998" s="21"/>
       <c r="N998" s="21"/>
       <c r="Q998" s="21"/>
     </row>
-    <row r="999" spans="10:17" ht="13">
+    <row r="999" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J999" s="21"/>
       <c r="N999" s="21"/>
       <c r="Q999" s="21"/>
     </row>
-    <row r="1000" spans="10:17" ht="13">
+    <row r="1000" spans="10:17" ht="13" x14ac:dyDescent="0.15">
       <c r="J1000" s="21"/>
       <c r="N1000" s="21"/>
       <c r="Q1000" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N1:N147 N149:N153 O154:O157 J1:J1000 N158:N1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N1:N147 N149:N153 O154:O157 J1:J1000 N158:N1000">
       <formula1>"Mid-Atlantic,New England,East-North Central,West North Central,South Atlantic,East South Central,West South Central,Mountain,Pacific"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="Q1:Q1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="Q1:Q1000">
       <formula1>"Coastal Ecosystems,Polar &amp; Alpine Tundra,Mires (Swamp/Bog/Fen/Moor),Temperate Deserts and Semi Deserts,Coniferous Forests,Temperate Deciduous Forests,Natural Grasslands,Temperate Broad Leaved Evergreen,Shrublands,Tropical Savannas,Tropical Forests,Wetland"&amp;" Forests,Ecosystems of Disturbed Ground,Managed Terrestrial Ecosystems,Inland Aquatic Ecosystems,River and Stream Ecosystem,Lakes and Reservoirs Ecosystems,Intertidal and Littoral Ecosystems,Coral Reefs,Estuaries and Enclosed Seas,Ecosystems of the Contin"&amp;"ental Shelves,Ecosystems of the Deep Ocean,Managed Aquatic Ecosystems,Underground Ecosystems"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="U2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -16579,25 +16586,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>673</v>
       </c>
@@ -16605,102 +16612,102 @@
         <v>674</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>694</v>
       </c>
@@ -16711,15 +16718,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
